--- a/新协同接口设计.xlsx
+++ b/新协同接口设计.xlsx
@@ -11,29 +11,22 @@
     <sheet name="客户端数据" sheetId="7" r:id="rId2"/>
     <sheet name="服务器端" sheetId="1" r:id="rId3"/>
     <sheet name="中央数据库" sheetId="4" r:id="rId4"/>
-    <sheet name="MQ端" sheetId="3" r:id="rId5"/>
-    <sheet name="中间服务器端" sheetId="5" r:id="rId6"/>
-    <sheet name="中间数据库" sheetId="6" r:id="rId7"/>
+    <sheet name="内核" sheetId="8" r:id="rId5"/>
+    <sheet name="MQ端" sheetId="3" r:id="rId6"/>
+    <sheet name="中间服务器端" sheetId="5" r:id="rId7"/>
+    <sheet name="中间数据库" sheetId="6" r:id="rId8"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="269">
   <si>
     <t>接口描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>url定义</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务定义</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>用户登录</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -46,22 +39,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>设置当前任务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取目录列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>更改文件名（移动文件）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>上传文件（创建文件）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>删除文件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -70,18 +51,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>更改目录（移动目录）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>删除目录</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>恢复删除的文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>恢复删除的目录</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -90,34 +63,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>解除文件锁定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下载文件（获取文件历史版本）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暂停上传（暂停下载）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>恢复上传（恢复下载）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通知文件修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建立文件版本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除文件版本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>下载升级包</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -126,42 +71,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>通告存在新升级包</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>获取剩余空间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>设置当前目录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取当前目录权限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取文件权限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>获取文件锁定状态</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>通告存在新升级包</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通知文件修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通告时机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>新升级包上传完毕</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -215,10 +132,6 @@
   </si>
   <si>
     <t>客户端配置文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>同步目录</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -422,11 +335,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>调用服务器端修改目录接口
-记录动作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>本机</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -483,12 +391,6 @@
   </si>
   <si>
     <t>本地协同文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内容：协同文件或.lnk
-对应关系：使用文件名标识，如&lt;id&gt;_
-状态：使用文件名标识，如[_uploading|downloading]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -686,7 +588,604 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>void moveCooperateFile(CooperateFileDTO&amp; oldFileInfo,char* )</t>
+    <t>数据定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url访问形式定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表中文名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表英文名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联合使用范例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部分字段定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>频道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代表意义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void deleteCooperateFile(char* fileId)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void createCooperateDir(char* cooperateDir)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void copyCooperateDir(CooperateFileDTO&amp; dirInfo,char* cooperateFileName)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void moveCooperateFile(CooperateFileDTO&amp; fileInfo,char* cooperateTargetName)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void moveCooperateDir(CooperateFileDTO&amp; dirInfo,char* cooperateTargetName)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void copyCooperateDir(CooperateFileDTO&amp; dirInfo,char* cooperateTargetName)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void undo()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上一步动作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同步目录/history.txt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动作：改名、创建等
+对象：id
+参数：原有名称等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同步目录/*.* (排除history.txt)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应关系：使用文件名标识，如&lt;id&gt;_
+状态：使用文件名标识，如[_uploading|downloading]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下载文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复制文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复制目录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恢复删除的文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取应用版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送文件提交通告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送应用升级通告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取文件信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取文件列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更改文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂停上传</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂停下载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取文件使用数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Account</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Account</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Storage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Notice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Storage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>System</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Notice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建立用户Session</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在用户Session内设置当前组织</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在用户Session内设置当前项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存在新升级包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向MQ内写入存在新升级包消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件提交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向MQ内写入文件提交消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调用服务器端更改文件接口
+记录动作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调用创建目录接口，创建目标目录
+递归调用复制文件接口，复制源目录下所有文件到目标目录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在数据库内查找指向指定文件的记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在文件服务器内查找指定的文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FileServer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建立文件上传通道，启动把文件上传到文件服务器进程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建立文件下载通道，启动把文件下载到指定地址进程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>启动上传文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>启动下载文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传文件结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Storage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下载文件结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>递归调用删除文件接口，删除目录下所有文件
+调用删除文件接口，删除此目录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FileServer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调用FileServer复制文件接口，在文件服务器内复制文件
+调用创建文件接口，指向复制后的文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复制文件，并返回新文件名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FileServer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查找文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查找文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>递归调用恢复删除的文件接口，恢复指定目录下所有文件
+调用恢复删除的文件接口，恢复此目录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂停上传进程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂停下载进程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恢复上传进程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恢复下载进程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查找升级包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算剩余空间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读取文件记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回文件记录的引用计数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读取应用版本记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取文件列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从文件服务器获取所有文件名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清理失效文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调用FileServer获取文件列表，获取所有文件名
+递归调用查找文件接口，查找指向此文件的记录
+如果没有找到有效的记录，调用FileServer的删除文件接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恢复下载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恢复上传</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更改文件名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>筛选并返回指定用户、组织、项目、任务的协同文件列表信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调用锁定文件接口，如果不成功返回错误
+修改文件记录的文件名、所在目录等信息
+调用解锁文件接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果文件未锁定，调用锁定文件接口，如果不成功返回错误
+如果上传用户与锁定用户不一致，返回错误
+修改文件记录的上传状态为1：上传中
+调用FileServer启动上传文件接口，目标文件名为xxx_uploading</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果文件记录的使用计数为0，调用替换文件接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改文件记录，减少文件使用计数
+如果文件使用计数为0，且上传状态为1，调用替换文件接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>替换文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调用FileServer的删除文件接口，删除原始文件
+调用FileServer的更改文件名接口，把xxx_uploading改为xxx
+修改文件记录，把上传状态改为0：空闲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果文件记录已锁定，返回错误
+修改文件记录，标记为已删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果文件记录标记为已删除，返回错误
+如果文件记录的上传状态为1，等待上传状态变为0
+修改文件记录，增加文件使用计数
+调用FileServer启动下载文件接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加文件记录，类型为目录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加文件记录，指向文件服务器内指定文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调用FileServer查找文件接口，在文件服务器内查找指定的文件
+如果找到，修改文件记录，标记为有效（未删除）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果文件记录锁定用户不为空，且不为申请用户，返回错误
+修改文件记录，记录锁定用户，并返回成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果文件记录锁定用户不为空，且不为申请用户，返回错误
+修改文件记录，设定锁定用户为null，并返回成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>System</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调用Storage查找文件接口，查找指定应用指定版本的升级包文件记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调用Storage下载文件接口，下载升级包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调用Storage上传文件接口，上传升级包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回文件记录的锁定用户是否为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void pauseSync()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void openCooperateFile(char* fileName)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void closeCooperateFile(char* fileName)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void commitCooperateFile(char* fileName)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char* findCooperatorFile(char* fileName)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void openFile(char* fileName)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void moveFile(char* oldFileName,char* newFileName)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void moveCooperateFile(char* oldFileName,char* newFileName)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void registerHotKey()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void showPopupMenu()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void showCooperationInfo()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MyBatis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T selectById(String id)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void updateById(T entity,String id)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void updateExactById(T entity,String id)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void insert(T entity)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void insertExact(T entity)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void insertList(List&lt;T&gt; entityList)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void insertExactList(List&lt;T&gt; entityList)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void fakeDeleteById(String id)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActiveMQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void sendMessage(String topic,T message)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BaseMQListener createTopicListener(String topic)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建立消息监听器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FastFDS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void upload(…)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FastFDS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void download(…)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void pause(…)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void resume(…)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void stop(…)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1049,8 +1548,8 @@
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1063,546 +1562,597 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="E2" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="E3" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="C4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="E4" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="81" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="B5" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="C5" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="E5" t="s">
-        <v>137</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="E6" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="C7" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="E7" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="B8" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="C8" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="E8" t="s">
-        <v>139</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="E9" t="s">
-        <v>140</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="B10" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="C10" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="E10" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="B11" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="C11" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="E11" t="s">
-        <v>141</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="B12" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="C12" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="E12" t="s">
-        <v>142</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="189" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="B13" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="C13" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="E13" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="54" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="B14" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="C14" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="E14" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="81" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="B15" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="C15" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="E15" t="s">
-        <v>146</v>
+        <v>122</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="B16" t="s">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="C16" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="E16" t="s">
-        <v>145</v>
+        <v>121</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="B17" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="C17" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="E17" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="B18" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="E18" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="B19" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="C19" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>90</v>
+        <v>68</v>
+      </c>
+      <c r="E19" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="B20" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="C20" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>91</v>
+        <v>69</v>
+      </c>
+      <c r="E20" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="B21" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="C21" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>112</v>
+        <v>88</v>
+      </c>
+      <c r="E21" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="B22" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="C22" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>92</v>
+        <v>70</v>
+      </c>
+      <c r="E22" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="B23" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="C23" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>93</v>
+        <v>179</v>
+      </c>
+      <c r="E23" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="B24" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>77</v>
+        <v>55</v>
+      </c>
+      <c r="E24" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="54" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="B25" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>80</v>
+        <v>58</v>
+      </c>
+      <c r="E25" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="B26" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>95</v>
+        <v>72</v>
+      </c>
+      <c r="E26" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="B27" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>121</v>
+        <v>97</v>
+      </c>
+      <c r="E27" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="B28" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>125</v>
+        <v>101</v>
+      </c>
+      <c r="E28" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="54" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="B29" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>87</v>
+        <v>65</v>
+      </c>
+      <c r="E29" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="B30" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>86</v>
+        <v>64</v>
+      </c>
+      <c r="E30" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="B31" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>99</v>
+        <v>76</v>
+      </c>
+      <c r="E31" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C32" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E32" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>71</v>
+      </c>
+      <c r="B33" t="s">
+        <v>90</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E33" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>71</v>
+      </c>
+      <c r="B34" t="s">
+        <v>102</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E34" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>71</v>
+      </c>
+      <c r="B35" t="s">
         <v>105</v>
       </c>
-      <c r="D32" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A33" t="s">
-        <v>94</v>
-      </c>
-      <c r="B33" t="s">
-        <v>114</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="27" x14ac:dyDescent="0.15">
-      <c r="A34" t="s">
-        <v>94</v>
-      </c>
-      <c r="B34" t="s">
-        <v>126</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="27" x14ac:dyDescent="0.15">
-      <c r="A35" t="s">
-        <v>94</v>
-      </c>
-      <c r="B35" t="s">
-        <v>129</v>
-      </c>
       <c r="C35" s="2" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>131</v>
+        <v>107</v>
+      </c>
+      <c r="E35" t="s">
+        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -1613,7 +2163,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
@@ -1628,33 +2178,46 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" s="1"/>
+        <v>25</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="2" spans="1:3" ht="54" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="40.5" x14ac:dyDescent="0.15">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>147</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>107</v>
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -1665,176 +2228,562 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A30"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="32.375" customWidth="1"/>
-    <col min="2" max="2" width="31.75" customWidth="1"/>
-    <col min="3" max="3" width="33.875" customWidth="1"/>
+    <col min="1" max="1" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.25" customWidth="1"/>
+    <col min="3" max="3" width="46.125" customWidth="1"/>
+    <col min="4" max="4" width="33.875" customWidth="1"/>
+    <col min="5" max="5" width="31.75" customWidth="1"/>
+    <col min="6" max="6" width="85.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+      <c r="C3" t="s">
+        <v>173</v>
+      </c>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
+      <c r="C4" t="s">
+        <v>174</v>
+      </c>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>183</v>
+      </c>
+      <c r="B5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>183</v>
+      </c>
+      <c r="B6" t="s">
+        <v>187</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>192</v>
+      </c>
+      <c r="B7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>195</v>
+      </c>
+      <c r="B8" t="s">
+        <v>196</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>183</v>
+      </c>
+      <c r="B9" t="s">
+        <v>162</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>183</v>
+      </c>
+      <c r="B10" t="s">
+        <v>163</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>183</v>
+      </c>
+      <c r="B11" t="s">
+        <v>214</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>183</v>
+      </c>
+      <c r="B12" t="s">
+        <v>215</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>195</v>
+      </c>
+      <c r="B13" t="s">
+        <v>208</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>195</v>
+      </c>
+      <c r="B14" t="s">
+        <v>212</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>195</v>
+      </c>
+      <c r="B15" t="s">
+        <v>216</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>168</v>
+      </c>
+      <c r="B16" t="s">
+        <v>156</v>
+      </c>
+      <c r="C16" t="s">
+        <v>178</v>
+      </c>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>171</v>
+      </c>
+      <c r="B17" t="s">
+        <v>157</v>
+      </c>
+      <c r="C17" t="s">
+        <v>176</v>
+      </c>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>167</v>
+      </c>
+      <c r="B18" t="s">
+        <v>160</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>167</v>
+      </c>
+      <c r="B19" t="s">
+        <v>161</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6" ht="81" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>167</v>
+      </c>
+      <c r="B20" t="s">
+        <v>149</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6" ht="54" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>167</v>
+      </c>
+      <c r="B21" t="s">
+        <v>150</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>169</v>
+      </c>
+      <c r="B22" t="s">
+        <v>188</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>189</v>
+      </c>
+      <c r="B23" t="s">
+        <v>190</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:6" ht="54" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>189</v>
+      </c>
+      <c r="B24" t="s">
+        <v>222</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>167</v>
+      </c>
+      <c r="B25" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
+      <c r="C25" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>167</v>
+      </c>
+      <c r="B26" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
+      <c r="C26" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>167</v>
+      </c>
+      <c r="B27" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
+      <c r="C27" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>167</v>
+      </c>
+      <c r="B28" t="s">
+        <v>151</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>167</v>
+      </c>
+      <c r="B29" t="s">
+        <v>152</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>167</v>
+      </c>
+      <c r="B30" t="s">
+        <v>153</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>167</v>
+      </c>
+      <c r="B31" t="s">
+        <v>197</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>167</v>
+      </c>
+      <c r="B32" t="s">
+        <v>154</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="F32" s="2"/>
+    </row>
+    <row r="33" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>167</v>
+      </c>
+      <c r="B33" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
+      <c r="C33" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F33" s="2"/>
+    </row>
+    <row r="34" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>167</v>
+      </c>
+      <c r="B34" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
+      <c r="C34" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="F34" s="2"/>
+    </row>
+    <row r="35" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>167</v>
+      </c>
+      <c r="B35" t="s">
+        <v>159</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="F35" s="2"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>169</v>
+      </c>
+      <c r="B36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F36" s="2"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>169</v>
+      </c>
+      <c r="B37" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="F37" s="2"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
+        <v>169</v>
+      </c>
+      <c r="B38" t="s">
+        <v>158</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="F38" s="2"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
+        <v>169</v>
+      </c>
+      <c r="B39" t="s">
+        <v>164</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F39" s="2"/>
+    </row>
+    <row r="40" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
+        <v>231</v>
+      </c>
+      <c r="B40" t="s">
+        <v>203</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="F40" s="2"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
+        <v>231</v>
+      </c>
+      <c r="B41" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
+      <c r="C41" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="F41" s="2"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
+        <v>231</v>
+      </c>
+      <c r="B42" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A21" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A24" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A25" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A26" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A27" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A28" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A29" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A30" t="s">
-        <v>31</v>
-      </c>
+      <c r="C42" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="F42" s="2"/>
+    </row>
+    <row r="43" spans="1:6" ht="54" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
+        <v>231</v>
+      </c>
+      <c r="B43" t="s">
+        <v>210</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="F43" s="2"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A44" t="s">
+        <v>170</v>
+      </c>
+      <c r="B44" t="s">
+        <v>155</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="F44" s="2"/>
     </row>
   </sheetData>
+  <sortState ref="A2:F44">
+    <sortCondition ref="A43"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1843,20 +2792,34 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C3"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="28.75" customWidth="1"/>
-    <col min="2" max="2" width="31" customWidth="1"/>
-    <col min="3" max="3" width="85.625" customWidth="1"/>
+    <col min="1" max="1" width="16.5" customWidth="1"/>
+    <col min="2" max="2" width="20.875" customWidth="1"/>
+    <col min="3" max="3" width="31" customWidth="1"/>
+    <col min="4" max="4" width="41.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1865,7 +2828,166 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="52" customWidth="1"/>
+    <col min="3" max="3" width="37.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>248</v>
+      </c>
+      <c r="B3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B4" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>248</v>
+      </c>
+      <c r="B5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>248</v>
+      </c>
+      <c r="B6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>248</v>
+      </c>
+      <c r="B7" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>248</v>
+      </c>
+      <c r="B8" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>248</v>
+      </c>
+      <c r="B9" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>257</v>
+      </c>
+      <c r="B10" t="s">
+        <v>258</v>
+      </c>
+      <c r="C10" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>257</v>
+      </c>
+      <c r="B11" t="s">
+        <v>259</v>
+      </c>
+      <c r="C11" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>262</v>
+      </c>
+      <c r="B12" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>264</v>
+      </c>
+      <c r="B13" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>264</v>
+      </c>
+      <c r="B14" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>264</v>
+      </c>
+      <c r="B15" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>264</v>
+      </c>
+      <c r="B16" t="s">
+        <v>268</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
@@ -1873,51 +2995,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="28.5" customWidth="1"/>
-    <col min="2" max="2" width="45.625" customWidth="1"/>
+    <col min="2" max="2" width="28.5" customWidth="1"/>
+    <col min="3" max="3" width="45.625" customWidth="1"/>
+    <col min="4" max="4" width="50.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>135</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>32</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>33</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>37</v>
+        <v>177</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1925,12 +3038,74 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="22.875" customWidth="1"/>
+    <col min="4" max="4" width="21.25" customWidth="1"/>
+    <col min="5" max="5" width="19.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="20.375" customWidth="1"/>
+    <col min="2" max="2" width="24.25" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="5" width="20.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/新协同接口设计.xlsx
+++ b/新协同接口设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="9" r:id="rId1"/>
@@ -18,15 +18,15 @@
     <sheet name="中间数据库" sheetId="6" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">服务器端!$A$1:$F$59</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">内核!$A$1:$D$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">服务器端!$A$1:$F$60</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">内核!$A$1:$D$25</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="400">
   <si>
     <t>接口描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -701,10 +701,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>在文件服务器内查找指定的文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FileServer</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -727,10 +723,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>复制文件，并返回新文件名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FileServer</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -765,10 +757,6 @@
   </si>
   <si>
     <t>获取文件列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>从文件服务器获取所有文件名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -779,10 +767,6 @@
     <t>调用FileServer获取文件列表，获取所有文件名
 递归调用查找文件接口，查找指向此文件的记录
 如果没有找到有效的记录，调用FileServer的删除文件接口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除文件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1130,11 +1114,6 @@
   </si>
   <si>
     <t>远程复制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>*向最后使用地址请求其调用上传文件接口
-**调用上传文件接口，从最后修改地址上传文件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1403,19 +1382,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>建立文件上传通道，启动把文件上传到文件服务器进程/给出授权</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建立文件下载通道，启动把文件下载到指定地址进程/给出授权</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>参数定义</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HttpRequestDTO getUploadRequestForHttp()</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1452,14 +1419,6 @@
   </si>
   <si>
     <t>void uploadResponseGotten(char* response)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>调用对比协同文件接口
-如果对比不一致
-  调用服务器获取上传参数接口，获取上传参数
-  如果本地协同文件没有处于上传状态，修改本地协同文件为上传状态
-  向文件服务器端申请上传文件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1586,134 +1545,253 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>在文件服务器内复制文件，返回复制后的文件实体地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String src:要复制的文件实体地址
+String:复制后的文件实体地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查找文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String src:要查找的文件实体地址
+Boolean：文件是否存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取文件服务器上的文件列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除指定文件实体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String src:要删除的文件实体地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件存储表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表英文名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aliyun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取文件存储空间类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回空间存储类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卯丁协同接口定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布历史</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张成亮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取通过Multipart上传文件时的参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取通过Multipart下载文件时的参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Integer getFileServerType()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>HttpRequestDTO:需要设置的Url和Header
   String url:需要设置的url
-  String header:需要设置的header</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在文件服务器内复制文件，返回复制后的文件实体地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>String DupFile(String src)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>String src:要复制的文件实体地址
-String:复制后的文件实体地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HttpRequestDTO getDownloadRequestForHttp(String src)</t>
+  String header:需要设置的header
+  Integer type:文件服务器类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>String src:文件实体地址
 HttpRequestDTO:需要设置的Url和Header
   String url:需要设置的url
+  String header:需要设置的header
+  Integer type:文件服务器类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复制文件，并返回新文件名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在文件服务器内查找指定的文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从文件服务器获取所有文件名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BasicHttpRequestDTO getDownloadRequestForHttp(BasicFileDTO src)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BasicFileDTO src:要复制的文件实体地址
+String:复制后的文件id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BasicFileDTO src:要查找的文件实体地址
+Boolean：文件是否存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BasicHttpRequestDTO getUploadRequestForHttp(BasicFileDTO src)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BasicFileDTO src:文件实体地址
+  String scope:空间(bucket或group)
+  String key:文件id(key或path)
+BasicHttpRequestDTO:需要设置的Url和Header
+  String url:需要设置的url
   String header:需要设置的header</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>查找文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Boolean isExist(String src)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>String src:要查找的文件实体地址
-Boolean：文件是否存在</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>List&lt;String&gt; listFile()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取文件服务器上的文件列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>List&lt;String&gt;：文件实体地址列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>void DeleteFile(String src)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除指定文件实体</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>String src:要删除的文件实体地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文件存储表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表英文名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Aliyun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取文件存储空间类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回空间存储类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Integer getInterfaceType()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Integer:空间存储类型，1-阿里云，2-FastFDS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HttpRequestDTO getUploadRequestForHttp()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卯丁协同接口定义</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>v0.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>版本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>作者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发布历史</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>v0.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张成亮</t>
+    <t>Boolean isExist(BasicFileDTO src)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BasicFileDTO src:要删除的文件实体地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HttpRequestDTO getDownloadRequestForHttp(FileDTO src)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String DuplicateFile(FileDTO src)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boolean isExist(FileDTO src)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void DeleteFile(FileDTO src)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;String&gt; listFile(String scope)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;String&gt;：文件id列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取空间列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从文件服务器获取所有空间名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;String&gt; listScope()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;String&gt;：文件存储空间列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取文件服务器上某空间的文件列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String scope：要查找的存储空间
+List&lt;String&gt;：文件id列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Integer:空间存储类型，1-通过url访问，2-通过js阿里云sdk访问</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HttpRequestDTO getUploadRequestForHttp(FileDTO src)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取文件服务器上空间列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;String&gt;：文件空间列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组合IP地址，得到远程服务名
+调用远程服务上的上传协同文件接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String duplicateFile(BasicFileDTO src)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void deleteFile(BasicFileDTO src)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调用对比协同文件接口
+如果对比不一致
+  调用服务器端获取上传参数接口，获取上传参数
+  如果本地协同文件没有处于上传状态，修改本地协同文件为上传状态
+  组合上传参数，向文件服务器申请上传文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v0.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v0.2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1821,17 +1899,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1841,6 +1910,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2145,8 +2223,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2154,108 +2232,114 @@
     <col min="1" max="3" width="19.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="5" customFormat="1" ht="60.75" customHeight="1">
-      <c r="A1" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
+    <row r="1" spans="1:3" s="4" customFormat="1" ht="60.75" customHeight="1">
+      <c r="A1" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
     </row>
     <row r="2" spans="1:3" ht="61.5" customHeight="1">
-      <c r="A2" s="6" t="s">
-        <v>376</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
+      <c r="A2" s="9" t="s">
+        <v>399</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
+      <c r="A3" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="8" t="s">
-        <v>377</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>378</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>379</v>
+      <c r="A4" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="9">
+      <c r="A5" s="6">
         <v>43032</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>382</v>
+      <c r="B5" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
+      <c r="A6" s="6">
+        <v>43033</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>361</v>
+      </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2273,8 +2357,8 @@
   <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2313,7 +2397,7 @@
         <v>19</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E2" t="s">
         <v>93</v>
@@ -2347,7 +2431,7 @@
         <v>34</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="E4" t="s">
         <v>97</v>
@@ -2364,7 +2448,7 @@
         <v>34</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>332</v>
+        <v>397</v>
       </c>
       <c r="E5" t="s">
         <v>98</v>
@@ -2381,7 +2465,7 @@
         <v>52</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="E6" t="s">
         <v>95</v>
@@ -2392,16 +2476,16 @@
         <v>41</v>
       </c>
       <c r="B7" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="C7" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="E7" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="54">
@@ -2409,16 +2493,16 @@
         <v>41</v>
       </c>
       <c r="B8" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="C8" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="E8" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="27">
@@ -2466,7 +2550,7 @@
         <v>34</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="E11" t="s">
         <v>100</v>
@@ -2483,7 +2567,7 @@
         <v>34</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="E12" t="s">
         <v>101</v>
@@ -2491,19 +2575,19 @@
     </row>
     <row r="13" spans="1:5" ht="81">
       <c r="A13" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B13" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="C13" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="E13" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="27">
@@ -2511,16 +2595,16 @@
         <v>41</v>
       </c>
       <c r="B14" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="E14" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="189">
@@ -2534,7 +2618,7 @@
         <v>34</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E15" t="s">
         <v>102</v>
@@ -2596,7 +2680,7 @@
         <v>41</v>
       </c>
       <c r="B19" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="C19" t="s">
         <v>34</v>
@@ -2729,19 +2813,19 @@
     </row>
     <row r="27" spans="1:5" ht="27">
       <c r="A27" t="s">
+        <v>227</v>
+      </c>
+      <c r="B27" t="s">
+        <v>228</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="E27" t="s">
         <v>231</v>
-      </c>
-      <c r="B27" t="s">
-        <v>232</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="E27" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="54">
@@ -2758,7 +2842,7 @@
         <v>51</v>
       </c>
       <c r="E28" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="67.5">
@@ -2766,16 +2850,16 @@
         <v>41</v>
       </c>
       <c r="B29" t="s">
+        <v>222</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E29" t="s">
         <v>226</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="E29" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -2783,50 +2867,50 @@
         <v>41</v>
       </c>
       <c r="B30" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="E30" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="67.5">
       <c r="A31" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B31" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="E31" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B32" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="E32" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="27">
@@ -2843,7 +2927,7 @@
         <v>62</v>
       </c>
       <c r="E33" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="27">
@@ -2860,7 +2944,7 @@
         <v>82</v>
       </c>
       <c r="E34" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="27">
@@ -2877,7 +2961,7 @@
         <v>86</v>
       </c>
       <c r="E35" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="54">
@@ -2894,7 +2978,7 @@
         <v>55</v>
       </c>
       <c r="E36" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -2911,7 +2995,7 @@
         <v>54</v>
       </c>
       <c r="E37" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="27">
@@ -2928,7 +3012,7 @@
         <v>66</v>
       </c>
       <c r="E38" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="40.5">
@@ -2945,7 +3029,7 @@
         <v>71</v>
       </c>
       <c r="E39" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -2962,7 +3046,7 @@
         <v>79</v>
       </c>
       <c r="E40" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="27">
@@ -2979,7 +3063,7 @@
         <v>89</v>
       </c>
       <c r="E41" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="27">
@@ -2996,7 +3080,7 @@
         <v>92</v>
       </c>
       <c r="E42" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -3040,7 +3124,7 @@
         <v>27</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="40.5">
@@ -3051,7 +3135,7 @@
         <v>130</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="40.5">
@@ -3074,11 +3158,11 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:F59"/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C62" sqref="C62"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3108,7 +3192,7 @@
         <v>112</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="40.5" hidden="1">
@@ -3122,10 +3206,10 @@
         <v>150</v>
       </c>
       <c r="D2" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="3" spans="1:6" hidden="1">
@@ -3139,10 +3223,10 @@
         <v>151</v>
       </c>
       <c r="D3" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="4" spans="1:6" hidden="1">
@@ -3156,10 +3240,10 @@
         <v>152</v>
       </c>
       <c r="D4" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
     </row>
     <row r="5" spans="1:6" hidden="1">
@@ -3167,343 +3251,348 @@
         <v>143</v>
       </c>
       <c r="B5" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="C5" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="D5" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="6" spans="1:6" hidden="1">
       <c r="A6" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B6" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C6" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D6" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6" hidden="1">
       <c r="A7" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B7" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C7" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D7" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:6" hidden="1">
       <c r="A8" t="s">
+        <v>258</v>
+      </c>
+      <c r="B8" t="s">
         <v>263</v>
       </c>
-      <c r="B8" t="s">
-        <v>268</v>
-      </c>
       <c r="C8" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="D8" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:6" hidden="1">
       <c r="A9" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B9" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="C9" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="D9" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:6" hidden="1">
       <c r="A10" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B10" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="C10" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="D10" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6" hidden="1">
       <c r="A11" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B11" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="C11" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="D11" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:6" hidden="1">
       <c r="A12" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B12" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="C12" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="D12" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="13" spans="1:6" hidden="1">
       <c r="A13" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B13" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="C13" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="D13" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:6" ht="67.5" hidden="1">
       <c r="A14" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B14" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C14" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D14" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
     </row>
     <row r="15" spans="1:6" hidden="1">
       <c r="A15" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B15" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C15" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D15" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="54" hidden="1">
       <c r="A16" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B16" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C16" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D16" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B17" t="s">
-        <v>370</v>
+        <v>353</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>371</v>
+        <v>354</v>
       </c>
       <c r="D17" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="40.5">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="54">
       <c r="A18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B18" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>320</v>
+        <v>362</v>
       </c>
       <c r="D18" t="s">
-        <v>374</v>
+        <v>391</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="54">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="67.5">
       <c r="A19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B19" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>321</v>
+        <v>363</v>
       </c>
       <c r="D19" t="s">
-        <v>356</v>
+        <v>378</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="27">
       <c r="A20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B20" t="s">
         <v>131</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>165</v>
+        <v>367</v>
       </c>
       <c r="D20" t="s">
-        <v>354</v>
+        <v>379</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="27">
       <c r="A21" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B21" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>159</v>
+        <v>368</v>
       </c>
       <c r="D21" t="s">
-        <v>359</v>
+        <v>380</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>360</v>
+        <v>346</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B22" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>175</v>
+        <v>369</v>
       </c>
       <c r="D22" t="s">
-        <v>361</v>
+        <v>382</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>363</v>
+        <v>383</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="B23" t="s">
-        <v>178</v>
+        <v>384</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>179</v>
+        <v>385</v>
       </c>
       <c r="D23" t="s">
-        <v>364</v>
+        <v>386</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" hidden="1">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="B24" t="s">
-        <v>136</v>
-      </c>
-      <c r="C24" t="s">
-        <v>221</v>
-      </c>
-      <c r="F24" s="2"/>
+        <v>175</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="D24" t="s">
+        <v>381</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>349</v>
+      </c>
     </row>
     <row r="25" spans="1:6" hidden="1">
       <c r="A25" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C25" t="s">
-        <v>154</v>
+        <v>217</v>
       </c>
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:6" hidden="1">
       <c r="A26" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B26" t="s">
-        <v>222</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>224</v>
+        <v>137</v>
+      </c>
+      <c r="C26" t="s">
+        <v>154</v>
       </c>
       <c r="F26" s="2"/>
     </row>
@@ -3512,96 +3601,96 @@
         <v>146</v>
       </c>
       <c r="B27" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:6" ht="40.5" hidden="1">
+    <row r="28" spans="1:6" hidden="1">
       <c r="A28" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B28" t="s">
-        <v>140</v>
+        <v>219</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>53</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:6" ht="40.5" hidden="1">
       <c r="A29" t="s">
         <v>145</v>
       </c>
       <c r="B29" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="F29" s="2"/>
-    </row>
-    <row r="30" spans="1:6" hidden="1">
+        <v>176</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="40.5" hidden="1">
       <c r="A30" t="s">
         <v>145</v>
       </c>
       <c r="B30" t="s">
-        <v>276</v>
+        <v>141</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>260</v>
+        <v>177</v>
       </c>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="1:6" ht="94.5" hidden="1">
+    <row r="31" spans="1:6" hidden="1">
       <c r="A31" t="s">
         <v>145</v>
       </c>
       <c r="B31" t="s">
-        <v>334</v>
+        <v>271</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>337</v>
+        <v>256</v>
       </c>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:6" ht="108" hidden="1">
+    <row r="32" spans="1:6" ht="94.5" hidden="1">
       <c r="A32" t="s">
         <v>145</v>
       </c>
       <c r="B32" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="1:6" ht="27" hidden="1">
+    <row r="33" spans="1:6" ht="108" hidden="1">
       <c r="A33" t="s">
         <v>145</v>
       </c>
       <c r="B33" t="s">
-        <v>261</v>
+        <v>326</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>262</v>
+        <v>327</v>
       </c>
       <c r="F33" s="2"/>
     </row>
-    <row r="34" spans="1:6" hidden="1">
+    <row r="34" spans="1:6" ht="27" hidden="1">
       <c r="A34" t="s">
         <v>145</v>
       </c>
       <c r="B34" t="s">
-        <v>347</v>
+        <v>257</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>349</v>
+        <v>394</v>
       </c>
       <c r="F34" s="2"/>
     </row>
@@ -3610,154 +3699,154 @@
         <v>145</v>
       </c>
       <c r="B35" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="F35" s="2"/>
     </row>
-    <row r="36" spans="1:6" ht="27" hidden="1">
+    <row r="36" spans="1:6" hidden="1">
       <c r="A36" t="s">
+        <v>145</v>
+      </c>
+      <c r="B36" t="s">
+        <v>339</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="F36" s="2"/>
+    </row>
+    <row r="37" spans="1:6" ht="27" hidden="1">
+      <c r="A37" t="s">
         <v>147</v>
       </c>
-      <c r="B36" t="s">
-        <v>338</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="F36" s="2"/>
-    </row>
-    <row r="37" spans="1:6" ht="40.5" hidden="1">
-      <c r="A37" t="s">
-        <v>161</v>
-      </c>
       <c r="B37" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>182</v>
+        <v>335</v>
       </c>
       <c r="F37" s="2"/>
     </row>
     <row r="38" spans="1:6" ht="40.5" hidden="1">
       <c r="A38" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B38" t="s">
-        <v>183</v>
+        <v>330</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>342</v>
+        <v>178</v>
       </c>
       <c r="F38" s="2"/>
     </row>
-    <row r="39" spans="1:6" ht="27" hidden="1">
+    <row r="39" spans="1:6" ht="40.5" hidden="1">
       <c r="A39" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="B39" t="s">
-        <v>5</v>
+        <v>179</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>184</v>
+        <v>333</v>
       </c>
       <c r="F39" s="2"/>
     </row>
-    <row r="40" spans="1:6" hidden="1">
+    <row r="40" spans="1:6" ht="27" hidden="1">
       <c r="A40" t="s">
         <v>145</v>
       </c>
       <c r="B40" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="F40" s="2"/>
     </row>
-    <row r="41" spans="1:6" ht="27" hidden="1">
+    <row r="41" spans="1:6" hidden="1">
       <c r="A41" t="s">
         <v>145</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="F41" s="2"/>
     </row>
-    <row r="42" spans="1:6" ht="40.5" hidden="1">
+    <row r="42" spans="1:6" ht="27" hidden="1">
       <c r="A42" t="s">
         <v>145</v>
       </c>
       <c r="B42" t="s">
-        <v>131</v>
+        <v>7</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F42" s="2"/>
     </row>
-    <row r="43" spans="1:6" hidden="1">
+    <row r="43" spans="1:6" ht="40.5" hidden="1">
       <c r="A43" t="s">
         <v>145</v>
       </c>
       <c r="B43" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>186</v>
+        <v>163</v>
       </c>
       <c r="F43" s="2"/>
     </row>
-    <row r="44" spans="1:6" ht="40.5" hidden="1">
+    <row r="44" spans="1:6" hidden="1">
       <c r="A44" t="s">
         <v>145</v>
       </c>
       <c r="B44" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="F44" s="2"/>
     </row>
-    <row r="45" spans="1:6" hidden="1">
+    <row r="45" spans="1:6" ht="40.5" hidden="1">
       <c r="A45" t="s">
         <v>145</v>
       </c>
       <c r="B45" t="s">
-        <v>282</v>
+        <v>133</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F45" s="2"/>
     </row>
-    <row r="46" spans="1:6" ht="67.5" hidden="1">
+    <row r="46" spans="1:6" hidden="1">
       <c r="A46" t="s">
         <v>145</v>
       </c>
       <c r="B46" t="s">
-        <v>134</v>
+        <v>277</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>343</v>
+        <v>158</v>
       </c>
       <c r="F46" s="2"/>
     </row>
-    <row r="47" spans="1:6" ht="40.5" hidden="1">
+    <row r="47" spans="1:6" ht="67.5" hidden="1">
       <c r="A47" t="s">
         <v>145</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>134</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>168</v>
+        <v>334</v>
       </c>
       <c r="F47" s="2"/>
     </row>
@@ -3766,10 +3855,10 @@
         <v>145</v>
       </c>
       <c r="B48" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="F48" s="2"/>
     </row>
@@ -3778,22 +3867,22 @@
         <v>145</v>
       </c>
       <c r="B49" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F49" s="2"/>
+    </row>
+    <row r="50" spans="1:6" ht="40.5" hidden="1">
+      <c r="A50" t="s">
+        <v>145</v>
+      </c>
+      <c r="B50" t="s">
         <v>139</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="F49" s="2"/>
-    </row>
-    <row r="50" spans="1:6" hidden="1">
-      <c r="A50" t="s">
-        <v>147</v>
-      </c>
-      <c r="B50" t="s">
-        <v>12</v>
-      </c>
       <c r="C50" s="2" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="F50" s="2"/>
     </row>
@@ -3802,10 +3891,10 @@
         <v>147</v>
       </c>
       <c r="B51" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="F51" s="2"/>
     </row>
@@ -3814,10 +3903,10 @@
         <v>147</v>
       </c>
       <c r="B52" t="s">
-        <v>138</v>
+        <v>13</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="F52" s="2"/>
     </row>
@@ -3826,87 +3915,99 @@
         <v>147</v>
       </c>
       <c r="B53" t="s">
+        <v>138</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F53" s="2"/>
+    </row>
+    <row r="54" spans="1:6" hidden="1">
+      <c r="A54" t="s">
+        <v>147</v>
+      </c>
+      <c r="B54" t="s">
         <v>142</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="F53" s="2"/>
-    </row>
-    <row r="54" spans="1:6" ht="27" hidden="1">
-      <c r="A54" t="s">
-        <v>279</v>
-      </c>
-      <c r="B54" t="s">
-        <v>280</v>
-      </c>
       <c r="C54" s="2" t="s">
-        <v>281</v>
+        <v>170</v>
       </c>
       <c r="F54" s="2"/>
     </row>
     <row r="55" spans="1:6" ht="27" hidden="1">
       <c r="A55" t="s">
-        <v>189</v>
+        <v>274</v>
       </c>
       <c r="B55" t="s">
-        <v>169</v>
+        <v>275</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="F55" s="2"/>
     </row>
-    <row r="56" spans="1:6" hidden="1">
+    <row r="56" spans="1:6" ht="27" hidden="1">
       <c r="A56" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B56" t="s">
-        <v>10</v>
+        <v>167</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>190</v>
+        <v>278</v>
       </c>
       <c r="F56" s="2"/>
     </row>
     <row r="57" spans="1:6" hidden="1">
       <c r="A57" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B57" t="s">
+        <v>10</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F57" s="2"/>
+    </row>
+    <row r="58" spans="1:6" hidden="1">
+      <c r="A58" t="s">
+        <v>185</v>
+      </c>
+      <c r="B58" t="s">
         <v>11</v>
       </c>
-      <c r="C57" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="F57" s="2"/>
-    </row>
-    <row r="58" spans="1:6" ht="54" hidden="1">
-      <c r="A58" t="s">
-        <v>189</v>
-      </c>
-      <c r="B58" t="s">
-        <v>176</v>
-      </c>
       <c r="C58" s="2" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="F58" s="2"/>
     </row>
-    <row r="59" spans="1:6" hidden="1">
+    <row r="59" spans="1:6" ht="54" hidden="1">
       <c r="A59" t="s">
+        <v>185</v>
+      </c>
+      <c r="B59" t="s">
+        <v>173</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F59" s="2"/>
+    </row>
+    <row r="60" spans="1:6" hidden="1">
+      <c r="A60" t="s">
         <v>148</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B60" t="s">
         <v>135</v>
       </c>
-      <c r="C59" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="F59" s="2"/>
+      <c r="C60" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F60" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F59">
+  <autoFilter ref="A1:F60">
     <filterColumn colId="0">
       <filters>
         <filter val="FileServer"/>
@@ -3943,7 +4044,7 @@
         <v>113</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>368</v>
+        <v>351</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>116</v>
@@ -3957,7 +4058,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>367</v>
+        <v>350</v>
       </c>
     </row>
   </sheetData>
@@ -3969,10 +4070,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3984,7 +4085,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>111</v>
@@ -3993,265 +4094,293 @@
         <v>110</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
     </row>
     <row r="2" spans="1:4" hidden="1">
       <c r="A2" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="3" spans="1:4" hidden="1">
       <c r="A3" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B3" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4" spans="1:4" hidden="1">
       <c r="A4" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B4" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:4" hidden="1">
       <c r="A5" t="s">
+        <v>201</v>
+      </c>
+      <c r="B5" t="s">
         <v>205</v>
-      </c>
-      <c r="B5" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="6" spans="1:4" hidden="1">
       <c r="A6" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B6" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="7" spans="1:4" hidden="1">
       <c r="A7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="8" spans="1:4" hidden="1">
       <c r="A8" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B8" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="9" spans="1:4" hidden="1">
       <c r="A9" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B9" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="10" spans="1:4" hidden="1">
       <c r="A10" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B10" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C10" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="11" spans="1:4" hidden="1">
       <c r="A11" t="s">
+        <v>210</v>
+      </c>
+      <c r="B11" t="s">
+        <v>212</v>
+      </c>
+      <c r="C11" t="s">
         <v>214</v>
       </c>
-      <c r="B11" t="s">
+    </row>
+    <row r="12" spans="1:4" ht="94.5">
+      <c r="A12" t="s">
+        <v>215</v>
+      </c>
+      <c r="B12" t="s">
+        <v>374</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="94.5">
+      <c r="A13" t="s">
+        <v>215</v>
+      </c>
+      <c r="B13" t="s">
+        <v>371</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="40.5">
+      <c r="A14" t="s">
         <v>216</v>
       </c>
-      <c r="C11" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="40.5">
-      <c r="A12" t="s">
-        <v>219</v>
-      </c>
-      <c r="B12" t="s">
-        <v>323</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="54">
-      <c r="A13" t="s">
-        <v>219</v>
-      </c>
-      <c r="B13" t="s">
-        <v>356</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="27">
-      <c r="A14" t="s">
-        <v>220</v>
-      </c>
       <c r="B14" t="s">
-        <v>354</v>
+        <v>395</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="27">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="40.5">
       <c r="A15" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B15" t="s">
-        <v>359</v>
+        <v>376</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="27">
       <c r="A16" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B16" t="s">
-        <v>361</v>
+        <v>382</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>362</v>
+        <v>388</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>363</v>
+        <v>389</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B17" t="s">
-        <v>364</v>
+        <v>386</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>365</v>
+        <v>392</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="40.5">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="27">
       <c r="A18" t="s">
-        <v>369</v>
+        <v>215</v>
       </c>
       <c r="B18" t="s">
-        <v>323</v>
+        <v>396</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="D18" s="2" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="94.5">
+      <c r="A19" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="54">
-      <c r="A19" t="s">
-        <v>369</v>
-      </c>
       <c r="B19" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>324</v>
+        <v>342</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="27">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="94.5">
       <c r="A20" t="s">
-        <v>369</v>
+        <v>352</v>
       </c>
       <c r="B20" t="s">
-        <v>354</v>
+        <v>371</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>353</v>
+        <v>316</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="27">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="40.5">
       <c r="A21" t="s">
-        <v>369</v>
+        <v>352</v>
       </c>
       <c r="B21" t="s">
-        <v>359</v>
+        <v>395</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>358</v>
+        <v>343</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="40.5">
       <c r="A22" t="s">
-        <v>369</v>
+        <v>352</v>
       </c>
       <c r="B22" t="s">
-        <v>361</v>
+        <v>376</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>362</v>
+        <v>345</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="27">
       <c r="A23" t="s">
-        <v>369</v>
+        <v>352</v>
       </c>
       <c r="B23" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>365</v>
+        <v>347</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>366</v>
+        <v>389</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>352</v>
+      </c>
+      <c r="B24" t="s">
+        <v>386</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="27">
+      <c r="A25" t="s">
+        <v>352</v>
+      </c>
+      <c r="B25" t="s">
+        <v>396</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>377</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D23">
+  <autoFilter ref="A1:D25">
     <filterColumn colId="0">
       <filters>
         <filter val="Aliyun"/>
@@ -4296,7 +4425,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B2" t="s">
         <v>153</v>
@@ -4307,7 +4436,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B3" t="s">
         <v>155</v>

--- a/新协同接口设计.xlsx
+++ b/新协同接口设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="9" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="中间数据库" sheetId="6" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">服务器端!$A$1:$F$60</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">服务器端!$A$1:$E$61</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">内核!$A$1:$D$25</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="415">
   <si>
     <t>接口描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -178,11 +178,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>调用服务器端获取文件信息接口
-对比本地和服务器端的文件md5信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>获取协同文件列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -224,13 +219,6 @@
   </si>
   <si>
     <t>修改协同文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>调用服务器端锁定文件接口
-调用对比协同文件接口
-如果对比不一致，调用下载协同文件接口
-如果锁定和下载未产生错误，使用可写方式打开本地文件，否则，提示原因并使用只读方式打开本地文件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -381,10 +369,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>同步协同文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>调用同步协同文件接口</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -470,10 +454,6 @@
   </si>
   <si>
     <t>char* showCooperationWindow()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CooperationInfoDTO* getCooperationInfo(CooperationInfoQueryDTO&amp; query)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1169,15 +1149,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>登记文件</t>
-  </si>
-  <si>
-    <t>调用对比协同文件接口
-如果客户端数据内自动上传配置项为有效，调用上传协同文件接口
-调用服务器端解锁文件接口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>协同文件下载方式：1.直接下载到同步目录，2.下载到指定目录，并在同步目录建立链接
 用户信息
 同步目录
@@ -1202,17 +1173,6 @@
   </si>
   <si>
     <t>调用Storage查找文件记录接口，查找指定应用指定版本的升级包文件记录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>调用服务端获取协同用户列表接口，得到可以通知的用户列表
-显示通知窗口，得到需要通知到的人员列表
-  通知窗口包含增加文件版本选项，可得到上传文件版本
-  通知窗口包含选择外部引用文件选择按钮，可调用选择外部引用文件接口，得到外部引用文件列表
-如果人员列表不为空，调用服务端发送文件提交通告接口
-调用同步协同文件接口
-如果文件版本不为空，调用服务器端添加文件版本接口
-如果外部引用文件列表不为空，调用服务器端更改外部引用文件接口</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1549,20 +1509,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>String src:要复制的文件实体地址
-String:复制后的文件实体地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>查找文件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>String src:要查找的文件实体地址
-Boolean：文件是否存在</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>获取文件服务器上的文件列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1571,10 +1521,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>String src:要删除的文件实体地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>文件存储表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1587,14 +1533,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>获取文件存储空间类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回空间存储类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>卯丁协同接口定义</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1628,25 +1566,6 @@
   </si>
   <si>
     <t>获取通过Multipart下载文件时的参数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Integer getFileServerType()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HttpRequestDTO:需要设置的Url和Header
-  String url:需要设置的url
-  String header:需要设置的header
-  Integer type:文件服务器类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>String src:文件实体地址
-HttpRequestDTO:需要设置的Url和Header
-  String url:需要设置的url
-  String header:需要设置的header
-  Integer type:文件服务器类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1705,15 +1624,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>String DuplicateFile(FileDTO src)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Boolean isExist(FileDTO src)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>void DeleteFile(FileDTO src)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1747,10 +1658,6 @@
   <si>
     <t>String scope：要查找的存储空间
 List&lt;String&gt;：文件id列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Integer:空间存储类型，1-通过url访问，2-通过js阿里云sdk访问</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1791,7 +1698,166 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>v0.2</t>
+    <t>FileDTO src:要删除的文件实体地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FileDTO src:要查找的文件实体地址
+Boolean：文件是否存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FileDTO src:要复制的文件实体地址
+String:复制后的文件实体地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String duplicateFile(FileDTO src)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void deleteFile(FileDTO src)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v0.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HttpRequestDTO:需要设置的Url和Header
+  String url:需要设置的url
+  String header:需要设置的header</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FileDTO src:文件实体地址
+  String scope:空间(bucket或group)
+  String key:文件id(key或path)
+HttpRequestDTO:需要设置的Url和Header
+  String url:需要设置的url
+  String header:需要设置的header</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FileServer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置文件服务器类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置使用的文件服务器类型标志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void setFileServerType(Integer type)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Integer type:文件服务器类型，1-FastFDS，2-阿里云</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取当前文件服务器类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取使用的文件服务器类型标志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Intger getFileServerType()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Integer:文件服务器类型，1-FastFDS，2-阿里云</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void noticeFileCommit(CooperateFileDTO fileInfo)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String getChannel(Integer number)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;String&gt; listChannel()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void noticeUpdate(ApplicationDTO appInfo)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CooperationDTO getCooperationInfo(CooperationQueryDTO&amp; query)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CooperationDTO* getCooperationInfo(CooperationQueryDTO&amp; query)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void moveCooperateFile(CooperateFileDTO fileInfo)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调用服务器端获取文件信息接口
+对比本地和服务器端的文件md5信息
+返回文件是否一致信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调用服务器端锁定文件接口
+调用对比协同文件接口
+如果对比不一致，调用下载协同文件接口
+如果锁定和下载未产生错误，使用可写方式打开本地文件，否则，提示原因并使用只读方式打开本地文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同步协同文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调用服务器端锁定文件接口
+调用服务端获取协同用户列表接口，得到可以通知的用户列表
+显示通知窗口，得到需要通知到的人员列表
+  通知窗口包含增加文件版本选项，可得到上传文件版本
+  通知窗口包含选择外部引用文件选择按钮，可调用选择外部引用文件接口，得到外部引用文件列表
+如果人员列表不为空，调用服务端发送文件提交通告接口
+调用同步协同文件接口
+如果文件版本不为空，调用服务器端添加文件版本接口
+如果外部引用文件列表不为空，调用服务器端更改外部引用文件接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果客户端数据内自动上传配置项为有效
+  调用上传协同文件接口
+否则
+  调用对比协同文件接口
+  如果对比不一致，调用服务器端登记文件修改接口
+调用服务器端解锁文件接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登记文件修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void logCooperateFile(CooperateFileDTO fileInfo)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HttpRequestDTO requestUploadByHttp(CooperateFileDTO fileInfo)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HttpRequestDTO requestDownloadByHttp(FileDTO src)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void copyFrom(CooperateFileDTO fileInfo,String ip)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2223,8 +2289,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2234,34 +2300,34 @@
   <sheetData>
     <row r="1" spans="1:3" s="4" customFormat="1" ht="60.75" customHeight="1">
       <c r="A1" s="8" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
     </row>
     <row r="2" spans="1:3" ht="61.5" customHeight="1">
       <c r="A2" s="9" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="10" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="5" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2269,10 +2335,10 @@
         <v>43032</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2280,10 +2346,10 @@
         <v>43033</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>398</v>
+        <v>380</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2357,8 +2423,8 @@
   <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2371,7 +2437,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2388,7 +2454,7 @@
     </row>
     <row r="2" spans="1:5" ht="108">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
@@ -2397,15 +2463,15 @@
         <v>19</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="40.5">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
         <v>32</v>
@@ -2417,97 +2483,97 @@
         <v>35</v>
       </c>
       <c r="E3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="54">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C4" t="s">
         <v>34</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="E4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="81">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C5" t="s">
         <v>34</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>397</v>
+        <v>379</v>
       </c>
       <c r="E5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="54">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="E6" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="67.5">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="C7" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="E7" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="54">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="C8" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="E8" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="27">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="40.5">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
         <v>31</v>
@@ -2516,134 +2582,134 @@
         <v>34</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>37</v>
+        <v>405</v>
       </c>
       <c r="E9" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="67.5">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C10" t="s">
         <v>34</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>49</v>
+        <v>406</v>
       </c>
       <c r="E10" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="54">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="81">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B11" t="s">
-        <v>81</v>
+        <v>407</v>
       </c>
       <c r="C11" t="s">
         <v>34</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>272</v>
+        <v>409</v>
       </c>
       <c r="E11" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="148.5">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="162">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C12" t="s">
         <v>34</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>279</v>
+        <v>408</v>
       </c>
       <c r="E12" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="81">
       <c r="A13" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="B13" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="C13" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="E13" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="27">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B14" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="E14" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="189">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C15" t="s">
         <v>34</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="E15" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="54">
       <c r="A16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C16" t="s">
         <v>34</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E16" t="s">
-        <v>103</v>
+        <v>403</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="81">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
@@ -2652,66 +2718,66 @@
         <v>34</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E17" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="27">
       <c r="A18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B18" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C18" t="s">
         <v>34</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E18" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="27">
       <c r="A19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B19" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="C19" t="s">
         <v>34</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E19" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="40.5">
       <c r="A20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" t="s">
         <v>41</v>
-      </c>
-      <c r="B20" t="s">
-        <v>42</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E20" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="40.5">
       <c r="A21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B21" t="s">
         <v>30</v>
@@ -2720,83 +2786,83 @@
         <v>34</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E21" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="27">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C22" t="s">
         <v>34</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E22" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="27">
       <c r="A23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B23" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C23" t="s">
         <v>34</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E23" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="27">
       <c r="A24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C24" t="s">
         <v>34</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E24" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="27">
       <c r="A25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C25" t="s">
         <v>34</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E25" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B26" t="s">
         <v>33</v>
@@ -2805,32 +2871,32 @@
         <v>34</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E26" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="27">
       <c r="A27" t="s">
+        <v>223</v>
+      </c>
+      <c r="B27" t="s">
+        <v>224</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="E27" t="s">
         <v>227</v>
-      </c>
-      <c r="B27" t="s">
-        <v>228</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="E27" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="54">
       <c r="A28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B28" t="s">
         <v>21</v>
@@ -2839,248 +2905,248 @@
         <v>22</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E28" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="67.5">
       <c r="A29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B29" t="s">
+        <v>218</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="E29" t="s">
         <v>222</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="E29" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B30" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="E30" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="67.5">
       <c r="A31" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B31" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="E31" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B32" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E32" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="27">
       <c r="A33" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B33" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E33" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="27">
       <c r="A34" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B34" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E34" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="27">
       <c r="A35" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B35" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C35" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D35" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="E35" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="54">
       <c r="A36" t="s">
+        <v>59</v>
+      </c>
+      <c r="B36" t="s">
         <v>61</v>
       </c>
-      <c r="B36" t="s">
-        <v>63</v>
-      </c>
       <c r="C36" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E36" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B37" t="s">
         <v>28</v>
       </c>
       <c r="C37" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D37" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="E37" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="27">
       <c r="A38" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B38" t="s">
+        <v>62</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="E38" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="40.5">
       <c r="A39" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B39" t="s">
         <v>4</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E39" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B40" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E40" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="27">
       <c r="A41" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B41" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E41" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="27">
       <c r="A42" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B42" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E42" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -3113,7 +3179,7 @@
         <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="67.5">
@@ -3124,29 +3190,29 @@
         <v>27</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="40.5">
       <c r="A3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="40.5">
       <c r="A4" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B4" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -3158,11 +3224,11 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:F60"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3171,843 +3237,888 @@
     <col min="2" max="2" width="21.25" customWidth="1"/>
     <col min="3" max="3" width="46.125" customWidth="1"/>
     <col min="4" max="4" width="33.875" customWidth="1"/>
-    <col min="5" max="5" width="31.75" customWidth="1"/>
-    <col min="6" max="6" width="85.875" customWidth="1"/>
+    <col min="5" max="5" width="85.875" customWidth="1"/>
+    <col min="6" max="6" width="31.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>251</v>
+        <v>107</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="40.5" hidden="1">
       <c r="A2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D2" t="s">
-        <v>291</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>306</v>
+        <v>284</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="3" spans="1:6" hidden="1">
       <c r="A3" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D3" t="s">
-        <v>292</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>308</v>
+        <v>285</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="4" spans="1:6" hidden="1">
       <c r="A4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D4" t="s">
-        <v>293</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>307</v>
+        <v>286</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="5" spans="1:6" hidden="1">
       <c r="A5" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B5" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="C5" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="D5" t="s">
-        <v>314</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="6" spans="1:6" hidden="1">
       <c r="A6" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B6" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C6" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D6" t="s">
-        <v>294</v>
-      </c>
-      <c r="F6" s="2"/>
+        <v>287</v>
+      </c>
+      <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:6" hidden="1">
       <c r="A7" t="s">
+        <v>254</v>
+      </c>
+      <c r="B7" t="s">
+        <v>257</v>
+      </c>
+      <c r="C7" t="s">
         <v>258</v>
       </c>
-      <c r="B7" t="s">
-        <v>261</v>
-      </c>
-      <c r="C7" t="s">
-        <v>262</v>
-      </c>
       <c r="D7" t="s">
-        <v>295</v>
-      </c>
-      <c r="F7" s="2"/>
+        <v>288</v>
+      </c>
+      <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:6" hidden="1">
       <c r="A8" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B8" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C8" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D8" t="s">
-        <v>296</v>
-      </c>
-      <c r="F8" s="2"/>
+        <v>289</v>
+      </c>
+      <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:6" hidden="1">
       <c r="A9" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B9" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C9" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="D9" t="s">
-        <v>297</v>
-      </c>
-      <c r="F9" s="2"/>
+        <v>290</v>
+      </c>
+      <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:6" hidden="1">
       <c r="A10" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B10" t="s">
+        <v>260</v>
+      </c>
+      <c r="C10" t="s">
         <v>264</v>
       </c>
-      <c r="C10" t="s">
-        <v>268</v>
-      </c>
       <c r="D10" t="s">
-        <v>298</v>
-      </c>
-      <c r="F10" s="2"/>
+        <v>291</v>
+      </c>
+      <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:6" hidden="1">
       <c r="A11" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B11" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C11" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="D11" t="s">
-        <v>299</v>
-      </c>
-      <c r="F11" s="2"/>
+        <v>292</v>
+      </c>
+      <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:6" hidden="1">
       <c r="A12" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B12" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C12" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="D12" t="s">
+        <v>295</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>302</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="13" spans="1:6" hidden="1">
       <c r="A13" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B13" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C13" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="D13" t="s">
-        <v>303</v>
-      </c>
-      <c r="F13" s="2"/>
+        <v>296</v>
+      </c>
+      <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:6" ht="67.5" hidden="1">
       <c r="A14" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B14" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C14" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D14" t="s">
-        <v>255</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>305</v>
+        <v>251</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="15" spans="1:6" hidden="1">
       <c r="A15" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B15" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C15" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D15" t="s">
-        <v>254</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>310</v>
+        <v>250</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="54" hidden="1">
       <c r="A16" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B16" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C16" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D16" t="s">
+        <v>297</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
+        <v>389</v>
+      </c>
+      <c r="B17" t="s">
+        <v>390</v>
+      </c>
+      <c r="C17" t="s">
+        <v>391</v>
+      </c>
+      <c r="D17" t="s">
+        <v>392</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>389</v>
+      </c>
+      <c r="B18" t="s">
+        <v>394</v>
+      </c>
+      <c r="C18" t="s">
+        <v>395</v>
+      </c>
+      <c r="D18" t="s">
+        <v>396</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="40.5">
+      <c r="A19" t="s">
+        <v>155</v>
+      </c>
+      <c r="B19" t="s">
+        <v>329</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="D19" t="s">
+        <v>373</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="81">
+      <c r="A20" t="s">
+        <v>155</v>
+      </c>
+      <c r="B20" t="s">
+        <v>330</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="D20" t="s">
+        <v>363</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="27">
+      <c r="A21" t="s">
+        <v>158</v>
+      </c>
+      <c r="B21" t="s">
+        <v>127</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="D21" t="s">
+        <v>384</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="27">
+      <c r="A22" t="s">
+        <v>160</v>
+      </c>
+      <c r="B22" t="s">
+        <v>161</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="D22" t="s">
+        <v>364</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>160</v>
+      </c>
+      <c r="B23" t="s">
+        <v>168</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="D23" t="s">
+        <v>365</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>155</v>
+      </c>
+      <c r="B24" t="s">
+        <v>367</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="D24" t="s">
+        <v>369</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>160</v>
+      </c>
+      <c r="B25" t="s">
+        <v>171</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="D25" t="s">
+        <v>385</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="40.5" hidden="1">
+      <c r="A26" t="s">
+        <v>142</v>
+      </c>
+      <c r="B26" t="s">
+        <v>132</v>
+      </c>
+      <c r="C26" t="s">
+        <v>213</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="1:5" ht="27" hidden="1">
+      <c r="A27" t="s">
+        <v>145</v>
+      </c>
+      <c r="B27" t="s">
+        <v>133</v>
+      </c>
+      <c r="C27" t="s">
+        <v>150</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="1:5" hidden="1">
+      <c r="A28" t="s">
+        <v>142</v>
+      </c>
+      <c r="B28" t="s">
+        <v>214</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="D28" t="s">
+        <v>399</v>
+      </c>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="1:5" hidden="1">
+      <c r="A29" t="s">
+        <v>142</v>
+      </c>
+      <c r="B29" t="s">
+        <v>215</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D29" t="s">
+        <v>400</v>
+      </c>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="1:5" ht="40.5" hidden="1">
+      <c r="A30" t="s">
+        <v>141</v>
+      </c>
+      <c r="B30" t="s">
+        <v>136</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="1:5" ht="40.5" hidden="1">
+      <c r="A31" t="s">
+        <v>141</v>
+      </c>
+      <c r="B31" t="s">
+        <v>137</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" spans="1:5" ht="40.5" hidden="1">
+      <c r="A32" t="s">
+        <v>141</v>
+      </c>
+      <c r="B32" t="s">
+        <v>410</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33" spans="1:5" ht="94.5" hidden="1">
+      <c r="A33" t="s">
+        <v>141</v>
+      </c>
+      <c r="B33" t="s">
+        <v>318</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" spans="1:5" ht="108" hidden="1">
+      <c r="A34" t="s">
+        <v>141</v>
+      </c>
+      <c r="B34" t="s">
+        <v>319</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="E34" s="2"/>
+    </row>
+    <row r="35" spans="1:5" ht="27" hidden="1">
+      <c r="A35" t="s">
+        <v>141</v>
+      </c>
+      <c r="B35" t="s">
+        <v>253</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="E35" s="2"/>
+    </row>
+    <row r="36" spans="1:5" hidden="1">
+      <c r="A36" t="s">
+        <v>141</v>
+      </c>
+      <c r="B36" t="s">
+        <v>331</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37" spans="1:5" hidden="1">
+      <c r="A37" t="s">
+        <v>141</v>
+      </c>
+      <c r="B37" t="s">
+        <v>332</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="E37" s="2"/>
+    </row>
+    <row r="38" spans="1:5" ht="27" hidden="1">
+      <c r="A38" t="s">
+        <v>143</v>
+      </c>
+      <c r="B38" t="s">
+        <v>322</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="E38" s="2"/>
+    </row>
+    <row r="39" spans="1:5" ht="40.5" hidden="1">
+      <c r="A39" t="s">
+        <v>156</v>
+      </c>
+      <c r="B39" t="s">
+        <v>323</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E39" s="2"/>
+    </row>
+    <row r="40" spans="1:5" ht="40.5" hidden="1">
+      <c r="A40" t="s">
+        <v>156</v>
+      </c>
+      <c r="B40" t="s">
+        <v>175</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="E40" s="2"/>
+    </row>
+    <row r="41" spans="1:5" ht="27" hidden="1">
+      <c r="A41" t="s">
+        <v>141</v>
+      </c>
+      <c r="B41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E41" s="2"/>
+    </row>
+    <row r="42" spans="1:5" hidden="1">
+      <c r="A42" t="s">
+        <v>141</v>
+      </c>
+      <c r="B42" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E42" s="2"/>
+    </row>
+    <row r="43" spans="1:5" ht="27" hidden="1">
+      <c r="A43" t="s">
+        <v>141</v>
+      </c>
+      <c r="B43" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E43" s="2"/>
+    </row>
+    <row r="44" spans="1:5" ht="40.5" hidden="1">
+      <c r="A44" t="s">
+        <v>141</v>
+      </c>
+      <c r="B44" t="s">
+        <v>127</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B17" t="s">
-        <v>353</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="D17" t="s">
-        <v>364</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="54">
-      <c r="A18" t="s">
-        <v>159</v>
-      </c>
-      <c r="B18" t="s">
-        <v>336</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="D18" t="s">
-        <v>391</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="67.5">
-      <c r="A19" t="s">
-        <v>159</v>
-      </c>
-      <c r="B19" t="s">
-        <v>337</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="D19" t="s">
-        <v>378</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="27">
-      <c r="A20" t="s">
+      <c r="E44" s="2"/>
+    </row>
+    <row r="45" spans="1:5" hidden="1">
+      <c r="A45" t="s">
+        <v>141</v>
+      </c>
+      <c r="B45" t="s">
+        <v>128</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E45" s="2"/>
+    </row>
+    <row r="46" spans="1:5" ht="40.5" hidden="1">
+      <c r="A46" t="s">
+        <v>141</v>
+      </c>
+      <c r="B46" t="s">
+        <v>129</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E46" s="2"/>
+    </row>
+    <row r="47" spans="1:5" hidden="1">
+      <c r="A47" t="s">
+        <v>141</v>
+      </c>
+      <c r="B47" t="s">
+        <v>271</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E47" s="2"/>
+    </row>
+    <row r="48" spans="1:5" ht="67.5" hidden="1">
+      <c r="A48" t="s">
+        <v>141</v>
+      </c>
+      <c r="B48" t="s">
+        <v>130</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="E48" s="2"/>
+    </row>
+    <row r="49" spans="1:5" ht="40.5" hidden="1">
+      <c r="A49" t="s">
+        <v>141</v>
+      </c>
+      <c r="B49" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B20" t="s">
+      <c r="E49" s="2"/>
+    </row>
+    <row r="50" spans="1:5" ht="40.5" hidden="1">
+      <c r="A50" t="s">
+        <v>141</v>
+      </c>
+      <c r="B50" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E50" s="2"/>
+    </row>
+    <row r="51" spans="1:5" ht="40.5" hidden="1">
+      <c r="A51" t="s">
+        <v>141</v>
+      </c>
+      <c r="B51" t="s">
+        <v>135</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E51" s="2"/>
+    </row>
+    <row r="52" spans="1:5" hidden="1">
+      <c r="A52" t="s">
+        <v>143</v>
+      </c>
+      <c r="B52" t="s">
+        <v>12</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E52" s="2"/>
+    </row>
+    <row r="53" spans="1:5" hidden="1">
+      <c r="A53" t="s">
+        <v>143</v>
+      </c>
+      <c r="B53" t="s">
+        <v>13</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E53" s="2"/>
+    </row>
+    <row r="54" spans="1:5" hidden="1">
+      <c r="A54" t="s">
+        <v>143</v>
+      </c>
+      <c r="B54" t="s">
+        <v>134</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E54" s="2"/>
+    </row>
+    <row r="55" spans="1:5" hidden="1">
+      <c r="A55" t="s">
+        <v>143</v>
+      </c>
+      <c r="B55" t="s">
+        <v>138</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E55" s="2"/>
+    </row>
+    <row r="56" spans="1:5" ht="27" hidden="1">
+      <c r="A56" t="s">
+        <v>268</v>
+      </c>
+      <c r="B56" t="s">
+        <v>269</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="E56" s="2"/>
+    </row>
+    <row r="57" spans="1:5" ht="27" hidden="1">
+      <c r="A57" t="s">
+        <v>181</v>
+      </c>
+      <c r="B57" t="s">
+        <v>163</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="E57" s="2"/>
+    </row>
+    <row r="58" spans="1:5" hidden="1">
+      <c r="A58" t="s">
+        <v>181</v>
+      </c>
+      <c r="B58" t="s">
+        <v>10</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E58" s="2"/>
+    </row>
+    <row r="59" spans="1:5" hidden="1">
+      <c r="A59" t="s">
+        <v>181</v>
+      </c>
+      <c r="B59" t="s">
+        <v>11</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E59" s="2"/>
+    </row>
+    <row r="60" spans="1:5" ht="54" hidden="1">
+      <c r="A60" t="s">
+        <v>181</v>
+      </c>
+      <c r="B60" t="s">
+        <v>169</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E60" s="2"/>
+    </row>
+    <row r="61" spans="1:5" hidden="1">
+      <c r="A61" t="s">
+        <v>144</v>
+      </c>
+      <c r="B61" t="s">
         <v>131</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="D20" t="s">
-        <v>379</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="27">
-      <c r="A21" t="s">
-        <v>164</v>
-      </c>
-      <c r="B21" t="s">
-        <v>165</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="D21" t="s">
-        <v>380</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" t="s">
-        <v>164</v>
-      </c>
-      <c r="B22" t="s">
-        <v>172</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="D22" t="s">
-        <v>382</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" t="s">
-        <v>159</v>
-      </c>
-      <c r="B23" t="s">
-        <v>384</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="D23" t="s">
-        <v>386</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" t="s">
-        <v>164</v>
-      </c>
-      <c r="B24" t="s">
-        <v>175</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="D24" t="s">
-        <v>381</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" hidden="1">
-      <c r="A25" t="s">
-        <v>146</v>
-      </c>
-      <c r="B25" t="s">
-        <v>136</v>
-      </c>
-      <c r="C25" t="s">
-        <v>217</v>
-      </c>
-      <c r="F25" s="2"/>
-    </row>
-    <row r="26" spans="1:6" hidden="1">
-      <c r="A26" t="s">
-        <v>149</v>
-      </c>
-      <c r="B26" t="s">
-        <v>137</v>
-      </c>
-      <c r="C26" t="s">
-        <v>154</v>
-      </c>
-      <c r="F26" s="2"/>
-    </row>
-    <row r="27" spans="1:6" hidden="1">
-      <c r="A27" t="s">
-        <v>146</v>
-      </c>
-      <c r="B27" t="s">
-        <v>218</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="F27" s="2"/>
-    </row>
-    <row r="28" spans="1:6" hidden="1">
-      <c r="A28" t="s">
-        <v>146</v>
-      </c>
-      <c r="B28" t="s">
-        <v>219</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="F28" s="2"/>
-    </row>
-    <row r="29" spans="1:6" ht="40.5" hidden="1">
-      <c r="A29" t="s">
-        <v>145</v>
-      </c>
-      <c r="B29" t="s">
-        <v>140</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="40.5" hidden="1">
-      <c r="A30" t="s">
-        <v>145</v>
-      </c>
-      <c r="B30" t="s">
-        <v>141</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="F30" s="2"/>
-    </row>
-    <row r="31" spans="1:6" hidden="1">
-      <c r="A31" t="s">
-        <v>145</v>
-      </c>
-      <c r="B31" t="s">
-        <v>271</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="F31" s="2"/>
-    </row>
-    <row r="32" spans="1:6" ht="94.5" hidden="1">
-      <c r="A32" t="s">
-        <v>145</v>
-      </c>
-      <c r="B32" t="s">
-        <v>325</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="F32" s="2"/>
-    </row>
-    <row r="33" spans="1:6" ht="108" hidden="1">
-      <c r="A33" t="s">
-        <v>145</v>
-      </c>
-      <c r="B33" t="s">
-        <v>326</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="F33" s="2"/>
-    </row>
-    <row r="34" spans="1:6" ht="27" hidden="1">
-      <c r="A34" t="s">
-        <v>145</v>
-      </c>
-      <c r="B34" t="s">
-        <v>257</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="F34" s="2"/>
-    </row>
-    <row r="35" spans="1:6" hidden="1">
-      <c r="A35" t="s">
-        <v>145</v>
-      </c>
-      <c r="B35" t="s">
-        <v>338</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="F35" s="2"/>
-    </row>
-    <row r="36" spans="1:6" hidden="1">
-      <c r="A36" t="s">
-        <v>145</v>
-      </c>
-      <c r="B36" t="s">
-        <v>339</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="F36" s="2"/>
-    </row>
-    <row r="37" spans="1:6" ht="27" hidden="1">
-      <c r="A37" t="s">
-        <v>147</v>
-      </c>
-      <c r="B37" t="s">
-        <v>329</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="F37" s="2"/>
-    </row>
-    <row r="38" spans="1:6" ht="40.5" hidden="1">
-      <c r="A38" t="s">
-        <v>160</v>
-      </c>
-      <c r="B38" t="s">
-        <v>330</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="F38" s="2"/>
-    </row>
-    <row r="39" spans="1:6" ht="40.5" hidden="1">
-      <c r="A39" t="s">
-        <v>160</v>
-      </c>
-      <c r="B39" t="s">
-        <v>179</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="F39" s="2"/>
-    </row>
-    <row r="40" spans="1:6" ht="27" hidden="1">
-      <c r="A40" t="s">
-        <v>145</v>
-      </c>
-      <c r="B40" t="s">
-        <v>5</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="F40" s="2"/>
-    </row>
-    <row r="41" spans="1:6" hidden="1">
-      <c r="A41" t="s">
-        <v>145</v>
-      </c>
-      <c r="B41" t="s">
-        <v>6</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="F41" s="2"/>
-    </row>
-    <row r="42" spans="1:6" ht="27" hidden="1">
-      <c r="A42" t="s">
-        <v>145</v>
-      </c>
-      <c r="B42" t="s">
-        <v>7</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="F42" s="2"/>
-    </row>
-    <row r="43" spans="1:6" ht="40.5" hidden="1">
-      <c r="A43" t="s">
-        <v>145</v>
-      </c>
-      <c r="B43" t="s">
-        <v>131</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="F43" s="2"/>
-    </row>
-    <row r="44" spans="1:6" hidden="1">
-      <c r="A44" t="s">
-        <v>145</v>
-      </c>
-      <c r="B44" t="s">
-        <v>132</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="F44" s="2"/>
-    </row>
-    <row r="45" spans="1:6" ht="40.5" hidden="1">
-      <c r="A45" t="s">
-        <v>145</v>
-      </c>
-      <c r="B45" t="s">
-        <v>133</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="F45" s="2"/>
-    </row>
-    <row r="46" spans="1:6" hidden="1">
-      <c r="A46" t="s">
-        <v>145</v>
-      </c>
-      <c r="B46" t="s">
-        <v>277</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="F46" s="2"/>
-    </row>
-    <row r="47" spans="1:6" ht="67.5" hidden="1">
-      <c r="A47" t="s">
-        <v>145</v>
-      </c>
-      <c r="B47" t="s">
-        <v>134</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="F47" s="2"/>
-    </row>
-    <row r="48" spans="1:6" ht="40.5" hidden="1">
-      <c r="A48" t="s">
-        <v>145</v>
-      </c>
-      <c r="B48" t="s">
-        <v>8</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="F48" s="2"/>
-    </row>
-    <row r="49" spans="1:6" ht="40.5" hidden="1">
-      <c r="A49" t="s">
-        <v>145</v>
-      </c>
-      <c r="B49" t="s">
-        <v>9</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="F49" s="2"/>
-    </row>
-    <row r="50" spans="1:6" ht="40.5" hidden="1">
-      <c r="A50" t="s">
-        <v>145</v>
-      </c>
-      <c r="B50" t="s">
-        <v>139</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="F50" s="2"/>
-    </row>
-    <row r="51" spans="1:6" hidden="1">
-      <c r="A51" t="s">
-        <v>147</v>
-      </c>
-      <c r="B51" t="s">
-        <v>12</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="F51" s="2"/>
-    </row>
-    <row r="52" spans="1:6" hidden="1">
-      <c r="A52" t="s">
-        <v>147</v>
-      </c>
-      <c r="B52" t="s">
-        <v>13</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="F52" s="2"/>
-    </row>
-    <row r="53" spans="1:6" hidden="1">
-      <c r="A53" t="s">
-        <v>147</v>
-      </c>
-      <c r="B53" t="s">
-        <v>138</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="F53" s="2"/>
-    </row>
-    <row r="54" spans="1:6" hidden="1">
-      <c r="A54" t="s">
-        <v>147</v>
-      </c>
-      <c r="B54" t="s">
-        <v>142</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="F54" s="2"/>
-    </row>
-    <row r="55" spans="1:6" ht="27" hidden="1">
-      <c r="A55" t="s">
-        <v>274</v>
-      </c>
-      <c r="B55" t="s">
-        <v>275</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="F55" s="2"/>
-    </row>
-    <row r="56" spans="1:6" ht="27" hidden="1">
-      <c r="A56" t="s">
-        <v>185</v>
-      </c>
-      <c r="B56" t="s">
+      <c r="C61" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="F56" s="2"/>
-    </row>
-    <row r="57" spans="1:6" hidden="1">
-      <c r="A57" t="s">
-        <v>185</v>
-      </c>
-      <c r="B57" t="s">
-        <v>10</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="F57" s="2"/>
-    </row>
-    <row r="58" spans="1:6" hidden="1">
-      <c r="A58" t="s">
-        <v>185</v>
-      </c>
-      <c r="B58" t="s">
-        <v>11</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="F58" s="2"/>
-    </row>
-    <row r="59" spans="1:6" ht="54" hidden="1">
-      <c r="A59" t="s">
-        <v>185</v>
-      </c>
-      <c r="B59" t="s">
-        <v>173</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="F59" s="2"/>
-    </row>
-    <row r="60" spans="1:6" hidden="1">
-      <c r="A60" t="s">
-        <v>148</v>
-      </c>
-      <c r="B60" t="s">
-        <v>135</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="F60" s="2"/>
+      <c r="E61" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F60">
+  <autoFilter ref="A1:E61">
     <filterColumn colId="0">
       <filters>
         <filter val="FileServer"/>
@@ -4041,24 +4152,24 @@
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
     </row>
   </sheetData>
@@ -4072,8 +4183,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4085,298 +4196,298 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
     </row>
     <row r="2" spans="1:4" hidden="1">
       <c r="A2" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B2" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" spans="1:4" hidden="1">
       <c r="A3" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B3" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:4" hidden="1">
       <c r="A4" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B4" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:4" hidden="1">
       <c r="A5" t="s">
+        <v>197</v>
+      </c>
+      <c r="B5" t="s">
         <v>201</v>
-      </c>
-      <c r="B5" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="6" spans="1:4" hidden="1">
       <c r="A6" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B6" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="7" spans="1:4" hidden="1">
       <c r="A7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:4" hidden="1">
       <c r="A8" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B8" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="9" spans="1:4" hidden="1">
       <c r="A9" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B9" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="10" spans="1:4" hidden="1">
       <c r="A10" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B10" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C10" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="11" spans="1:4" hidden="1">
       <c r="A11" t="s">
+        <v>206</v>
+      </c>
+      <c r="B11" t="s">
+        <v>208</v>
+      </c>
+      <c r="C11" t="s">
         <v>210</v>
-      </c>
-      <c r="B11" t="s">
-        <v>212</v>
-      </c>
-      <c r="C11" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="94.5">
       <c r="A12" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B12" t="s">
-        <v>374</v>
+        <v>359</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="94.5">
       <c r="A13" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B13" t="s">
-        <v>371</v>
+        <v>356</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="40.5">
       <c r="A14" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B14" t="s">
-        <v>395</v>
+        <v>377</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>372</v>
+        <v>357</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="40.5">
       <c r="A15" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B15" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>373</v>
+        <v>358</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="27">
       <c r="A16" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B16" t="s">
-        <v>382</v>
+        <v>365</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>388</v>
+        <v>371</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>389</v>
+        <v>372</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B17" t="s">
-        <v>386</v>
+        <v>369</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>392</v>
+        <v>374</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>393</v>
+        <v>375</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="27">
       <c r="A18" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B18" t="s">
-        <v>396</v>
+        <v>378</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>377</v>
+        <v>362</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="94.5">
       <c r="A19" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="B19" t="s">
-        <v>374</v>
+        <v>359</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="94.5">
       <c r="A20" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="B20" t="s">
-        <v>371</v>
+        <v>356</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="40.5">
       <c r="A21" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="B21" t="s">
-        <v>395</v>
+        <v>377</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>372</v>
+        <v>357</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="40.5">
       <c r="A22" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="B22" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>373</v>
+        <v>358</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="27">
       <c r="A23" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="B23" t="s">
-        <v>382</v>
+        <v>365</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>389</v>
+        <v>372</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="B24" t="s">
-        <v>386</v>
+        <v>369</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>392</v>
+        <v>374</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>393</v>
+        <v>375</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="27">
       <c r="A25" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="B25" t="s">
-        <v>396</v>
+        <v>378</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>377</v>
+        <v>362</v>
       </c>
     </row>
   </sheetData>
@@ -4411,13 +4522,13 @@
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>15</v>
@@ -4425,10 +4536,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
@@ -4436,10 +4547,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B3" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C3" t="s">
         <v>16</v>
@@ -4469,19 +4580,19 @@
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -4508,16 +4619,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/新协同接口设计.xlsx
+++ b/新协同接口设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="9" r:id="rId1"/>
@@ -1730,15 +1730,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FileDTO src:文件实体地址
-  String scope:空间(bucket或group)
-  String key:文件id(key或path)
-HttpRequestDTO:需要设置的Url和Header
-  String url:需要设置的url
-  String header:需要设置的header</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FileServer</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1858,6 +1849,15 @@
   </si>
   <si>
     <t>void copyFrom(CooperateFileDTO fileInfo,String ip)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FileDTO src:文件实体地址
+  String scope:空间(bucket或group)
+  String key:文件id(key或path)
+HttpRequestDTO:需要设置的Url和Header
+  String url:需要设置的url
+  String header:需要设置的header</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2582,7 +2582,7 @@
         <v>34</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E9" t="s">
         <v>96</v>
@@ -2599,7 +2599,7 @@
         <v>34</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E10" t="s">
         <v>93</v>
@@ -2610,13 +2610,13 @@
         <v>40</v>
       </c>
       <c r="B11" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C11" t="s">
         <v>34</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E11" t="s">
         <v>97</v>
@@ -2633,7 +2633,7 @@
         <v>34</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E12" t="s">
         <v>98</v>
@@ -2704,7 +2704,7 @@
         <v>51</v>
       </c>
       <c r="E16" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="81">
@@ -3226,9 +3226,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D36" sqref="D36"/>
+      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3504,36 +3504,36 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
+        <v>388</v>
+      </c>
+      <c r="B17" t="s">
         <v>389</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>390</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>391</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" s="2" t="s">
         <v>392</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B18" t="s">
+        <v>393</v>
+      </c>
+      <c r="C18" t="s">
         <v>394</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>395</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" s="2" t="s">
         <v>396</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="40.5">
@@ -3567,7 +3567,7 @@
         <v>363</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>388</v>
+        <v>414</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="27">
@@ -3666,7 +3666,7 @@
         <v>213</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E26" s="2"/>
     </row>
@@ -3681,7 +3681,7 @@
         <v>150</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E27" s="2"/>
     </row>
@@ -3696,7 +3696,7 @@
         <v>216</v>
       </c>
       <c r="D28" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E28" s="2"/>
     </row>
@@ -3711,7 +3711,7 @@
         <v>217</v>
       </c>
       <c r="D29" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E29" s="2"/>
     </row>
@@ -3726,7 +3726,7 @@
         <v>172</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E30" s="2"/>
     </row>
@@ -3741,7 +3741,7 @@
         <v>173</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E31" s="2"/>
     </row>
@@ -3750,13 +3750,13 @@
         <v>141</v>
       </c>
       <c r="B32" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>252</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E32" s="2"/>
     </row>
@@ -3771,7 +3771,7 @@
         <v>321</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E33" s="2"/>
     </row>
@@ -3786,7 +3786,7 @@
         <v>320</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E34" s="2"/>
     </row>
@@ -3801,7 +3801,7 @@
         <v>376</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E35" s="2"/>
     </row>
@@ -4183,7 +4183,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>

--- a/新协同接口设计.xlsx
+++ b/新协同接口设计.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr filterPrivacy="1" showInkAnnotation="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="11490" windowHeight="4980" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="9" r:id="rId1"/>
@@ -18,15 +18,15 @@
     <sheet name="中间数据库" sheetId="6" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">服务器端!$A$1:$E$61</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">内核!$A$1:$D$25</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">服务器端!$A$1:$E$65</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">内核!$A$1:$D$20</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="481">
   <si>
     <t>接口描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,39 +48,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>删除文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建目录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除目录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>恢复删除的目录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>锁定文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>下载升级包</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>上传升级包</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取剩余空间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取文件锁定状态</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -571,18 +543,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>创建文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>复制目录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>恢复删除的文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>获取应用版本</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -592,26 +552,6 @@
   </si>
   <si>
     <t>发送应用升级通告</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取文件信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>解锁文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取文件列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更改文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取文件使用数量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -758,21 +698,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>调用锁定文件接口，如果不成功返回错误
-修改文件记录的文件名、所在目录等信息
-调用解锁文件接口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>修改文件记录，减少文件使用计数
 如果文件使用计数为0，且上传状态为1，调用替换文件接口</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>替换文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>如果文件记录已锁定，返回错误
 修改文件记录，标记为已删除</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -913,14 +843,6 @@
   </si>
   <si>
     <t>建立消息监听器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FastFDS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FastFDS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1089,14 +1011,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>修改文件记录，更新最后修改时间和最后修改地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>远程复制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Account</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1160,15 +1074,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>添加文件版本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>调用复制文件接口，复制一个同名文件并设定复制后的文件版本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查找文件记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1389,36 +1295,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>申请上传文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>申请下载文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果文件记录标记为已删除，返回错误
-如果文件记录的上传状态为1，等待上传状态变为0
-调用FileServer查找文件接口
-如果未找到，调用远程复制接口从最后修改地址复制文件
-修改文件记录，增加文件使用计数
-调用FileServer获取http下载参数接口，返回获取的http下载参数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>如果文件未锁定，调用锁定文件接口，如果不成功返回错误
 如果上传用户与锁定用户不一致，返回错误
 调用登记文件接口，更改文件记录
 修改文件记录的上传状态为1：上传中
 调用FileServer获取Http上传参数接口，返回获取的http上传参数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上传文件结束</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下载文件结束</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1483,18 +1364,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>上传回调</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下载回调</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提供上传回调处理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>提供下载回调处理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1513,26 +1382,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>获取文件服务器上的文件列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>删除指定文件实体</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>文件存储表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>表英文名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Aliyun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>卯丁协同接口定义</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1582,10 +1439,6 @@
   </si>
   <si>
     <t>删除文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BasicHttpRequestDTO getDownloadRequestForHttp(BasicFileDTO src)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1599,28 +1452,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BasicHttpRequestDTO getUploadRequestForHttp(BasicFileDTO src)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BasicFileDTO src:文件实体地址
-  String scope:空间(bucket或group)
-  String key:文件id(key或path)
-BasicHttpRequestDTO:需要设置的Url和Header
-  String url:需要设置的url
-  String header:需要设置的header</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Boolean isExist(BasicFileDTO src)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>BasicFileDTO src:要删除的文件实体地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HttpRequestDTO getDownloadRequestForHttp(FileDTO src)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1661,20 +1497,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>HttpRequestDTO getUploadRequestForHttp(FileDTO src)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>获取文件服务器上空间列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>List&lt;String&gt;：文件空间列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>组合IP地址，得到远程服务名
-调用远程服务上的上传协同文件接口</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1720,16 +1547,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>v0.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HttpRequestDTO:需要设置的Url和Header
-  String url:需要设置的url
-  String header:需要设置的header</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FileServer</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1782,15 +1599,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CooperationDTO getCooperationInfo(CooperationQueryDTO&amp; query)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CooperationDTO* getCooperationInfo(CooperationQueryDTO&amp; query)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>void moveCooperateFile(CooperateFileDTO fileInfo)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1832,32 +1641,616 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>登记文件修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>void logCooperateFile(CooperateFileDTO fileInfo)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HttpRequestDTO requestUploadByHttp(CooperateFileDTO fileInfo)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HttpRequestDTO requestDownloadByHttp(FileDTO src)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>void copyFrom(CooperateFileDTO fileInfo,String ip)</t>
+    <t>上传文件分片内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v0.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张成亮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FileServer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下载文件内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BasicUploadResultDTO upload(BasicUploadRequestDTO request)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下载文件分片内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BasicDownloadResultDTO download(BasicDownloadRequestDTO request)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FastFDS/Aliyun/Jcifs/Ftp/Local</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UploadResultDTO upload(UploadRequestDTO request)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DownloadResultDTO download(DownloadRequestDTO request)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网址:getDownloadRequestForHttp返回值内的url
+访问方法：POST
+DownloadRequestDTO参数：
+requestId,downloadId,pos,size,chunkPerSize需生成,其他可使用getDownloadRequestForHttp的返回值内的params</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改文件记录的文件名、所在目录等信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果文件记录标记为已删除，返回错误
+如果文件记录的上传状态为1，等待上传状态变为0
+调用FileServer查找文件接口
+如果未找到，返回远程复制接口地址及参数
+修改文件记录，增加文件使用计数
+调用FileServer获取http下载参数接口，返回获取的http下载参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请上传文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请下载文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网址:getUploadRequestForHttp返回值内的url
+访问方法：POST
+UploadRequestDTO参数：
+requestId,chunkCount,chunkPerSize,chunkId,chunkSize,multi.pos,multi.size,multi.data需生成,其他可使用getUploadRequestForHttp的返回值内的params</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网址：/iWork/Storage/requestDownloadByHttp
+访问方法：POST
+CooperateFileDTO参数：
+  id必需</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网址：/iWork/Storage/requestUploadByHttp
+访问方法：POST
+CooperateFileDTO参数：
+  id,fileName,dirName,fileLength,checksum,version,specialtyId,referenceIdList必需</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RequestFileDTO getUploadRequest(FileDTO src,Integer mode,CallbackDTO callback)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RequestFileDTO getDownloadRequest(FileDTO src,Integer mode,CallbackDTO callback)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BasicFileRequestDTO getUploadRequest(BasicFileDTO src,Integer mode,CallbackDTO callback)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>FileDTO src:文件实体地址
   String scope:空间(bucket或group)
   String key:文件id(key或path)
-HttpRequestDTO:需要设置的Url和Header
-  String url:需要设置的url
-  String header:需要设置的header</t>
+Integer mode:同getUploadRequest内mode参数
+CallbackDTO callback：同getUploadRequest内callback参数
+RequestFileDTO:同getUploadRequest的返回值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BasicFileRequestDTO getDownloadRequest(BasicFileDTO src,Integer mode,CallbackDTO callback)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BasicFileDTO src:文件实体地址
+  String scope:空间(bucket或group)
+  String key:文件id(key或path)
+Integer mode:同getUploadRequest内mode参数
+CallbackDTO callback:同getUploadRequest内mode参数
+BasicFileRequestDTO:同getUploadRequest返回值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UploadRequestDTO request:上传申请
+    Integer requestId; //上传申请的唯一编号
+    String uploadId; //上传任务ID
+    Integer chunkCount; //总分片数量
+    Integer chunkPerSize; //每个分片的约定大小
+    Integer chunkId; //要上传的分片序号
+    Integer chunkSize; //要上传的分片大小
+    Map&lt;String,String&gt; params; //其他上传参数
+    FileMultipartDTO multipart; //要上传的文件数据
+      String scope; //空间(bucket或group)
+      String key; //文件id(key或path)
+      Long pos; //数据所在起始位置，为0则为从文件头开始
+      Integer size; //数据有效字节数，为0则所有字节都有效
+      byte[] data; //当前分片数据
+UploadResult：上传结果
+    Integer status; //返回状态，等于0-正常，小于0-发生异常，大于0-存在警告
+    String msg; //返回状态文字说明 
+    FileDTO data; //上传文件在文件服务器内的标识
+    Integer requestId; //上传申请的唯一编号
+    String uploadId; //上传任务ID
+    Integer chunkId; //当前上传的分片序号
+    Integer chunkSize;//实际上传的分片大小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BasicUploadRequestDTO request:上传申请
+    Integer requestId; //上传申请的唯一编号
+    String uploadId; //上传任务ID
+    Integer chunkCount; //总分片数量
+    Integer chunkPerSize; //每个分片的约定大小
+    Integer chunkId; //要上传的分片序号
+    Integer chunkSize; //要上传的分片大小
+    Map&lt;String,String&gt; params; //其他上传参数
+    BasicFileMultipartDTO multipart; //要上传的文件数据
+      String scope; //空间(bucket或group)
+      String key; //文件id(key或path)
+      Long pos; //数据所在起始位置，为0则为从文件头开始
+      Integer size; //数据有效字节数，为0则所有字节都有效
+      byte[] data; //当前分片数据
+BasicUploadResult：上传结果
+    Integer status; //返回状态，等于0-正常，小于0-发生异常，大于0-存在警告
+    String msg; //返回状态文字说明 
+    FileDTO data; //上传文件在文件服务器内的标识
+    Integer requestId; //上传申请的唯一编号
+    String uploadId; //上传任务ID
+    Integer chunkId; //当前上传的分片序号
+    Integer chunkSize;//实际上传的分片大小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FileDTO src:文件实体地址
+  String scope:空间(bucket或group)，为空自动分配
+  String key:文件id(key或path)，为空自动分配
+Integer mode:准备连接文件服务器的方式，0-使用默认方式,1-用文件服务器组件,2-用HTTP GET，3-用HTTP POST
+CallbackDTO callback:回调信息
+  string url:回调地址
+  string name:回调服务器名称
+  Map&lt;String,Object&gt; params:回调参数
+RequestFileDTO:文件服务的连接地址和申请参数
+  String url:文件服务的连接地址
+  Integer mode:文件服务器连接方式，2-Http Get,3-Http Post,4-阿里云OSS,...
+  Map&lt;String,String&gt; params:需要设置的参数（如OSSAccessKeyId等)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FileRequestDTO requestUpload(CooperateFileDTO fileInfo,Integer mode)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CooperateFileDTO fileInfo:要上传的文件信息
+    string id; //协同文件id（针对每一个版本）
+    string fileName; //协同文件名
+    string dirName; //协同目录名
+    Long fileLength; //文件长度
+    string checksum; //协同文件md5
+    string version; //协同文件版本号
+    string specialtyId; //专业id
+    string lastAdapterId; //最近更改协同的下载服务的AdapterId
+    string lastComputerIp; //最近更改协同的计算机的IP地址
+    Short syncMode; //同步模式，0-手动同步，1-自动下载最新版本，2-自动更新
+    Boolean canBeModify; //能否修改（服务器是否锁定）
+    string localFile; //本地文件路径
+    Map referenceIdList; //参考协同文件id
+    string creatorId; //协同创建者的用户id
+    Date createTime; //协同建立时间
+    string lastId; //最近更改协同的用户id
+    Date lastTime; //最近更改协同的时间
+Integer mode:同FileServer.getUploadRequest内mode参数
+FileRequestDTO:同FileServer.getUploadRequest的返回值类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CooperateFileDTO fileInfo:要下载的文件信息，同requestUploadByHttp的src定义
+Integer mode:同requestUpload内mode参数
+FileRequestDTO：同requestUploadByHttp的返回值定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v0.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v0.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BasicFileDTO src:文件实体地址
+  String scope:空间(bucket或group),如果为空则分配一个
+  String key:文件id(key或path)，如果为空则分配一个
+Integer mode:准备连接文件服务器的方法，0-使用默认方式,1-用默认插件方式，2-用HTTP GET，3-用HTTP POST
+CallbackDTO callback:回调信息
+  string url:回调地址
+  string name:回调服务器名称
+  Map&lt;String,String&gt; params:回调参数
+BasicFileRequestDTO:文件服务器连接信息
+  String url:文件服务器连接地址
+  Integer mode:文件服务器连接方式，2-Http Get,3-Http Post,4-阿里云OSS,...
+  Map&lt;String,String&gt; params:需要设置的参数（如OSSAccessKeyId等)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">BasicDownloadRequestDTO request:下载请求
+    Integer requestId; //下载申请的唯一编号 
+    String scope; //空间(bucket或group)
+    String key; //文件id(key或path)
+    Integer chunkId; //申请下载的分片序号，与分片大小相乘计算出文件起始位置
+    Integer chunkSize; //申请下载的分片大小，如果为0则chunkId失效，下载文件所有内容
+    Map&lt;String,String&gt; params; //其他下载参数
+BasicDownloadResultDTO：下载结果
+    Integer status; //返回状态，等于0-正常，小于0-发生异常，大于0-存在警告
+    String msg; //返回状态文字说明 
+    BasicFileMultipartDTO data; //已下载的文件数据
+    Integer requestId; //下载申请的唯一编号
+    Integer chunkCount; //总分片数量
+    Integer chunkId; //当前下载的分片序号
+    Integer chunkSize; //当前下载的分片大小 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DownloadRequestDTO request:下载请求
+    Integer requestId; //下载申请的唯一编号 
+    String scope; //空间(bucket或group)
+    String key; //文件id(key或path)
+    Integer chunkId; //申请下载的分片序号，与分片大小相乘计算出文件起始位置
+    Integer chunkSize; //申请下载的分片大小，如果为0则chunkId失效，下载文件所有内容
+    Map&lt;String,String&gt; params; //其他下载参数
+DownloadResultDTO：下载结果
+    Integer status; //返回状态，等于0-正常，小于0-发生异常，大于0-存在警告
+    String msg; //返回状态文字说明 
+    FileMultipartDTO data; //已下载的文件数据
+    Integer requestId; //下载申请的唯一编号
+    Integer chunkId; //当前下载的分片序号
+    Integer chunkSize; //当前下载的分片大小 
+    Integer chunkCount; //后续内容分片数量，为0则已经下载完毕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Storage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消文件上传</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束文件传输</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束文件传输</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void finishTransfer(FileDTO src)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FileDTO src:要结束的文件实体地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调用FileServer结束文件传输接口
+如果文件正在上传，调用FileServer删除文件接口
+设置文件状态，或减少下载引用计数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FileRequestDTO requestDownload(CooperateFileDTO fileInfo,Integer mode)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提供上传回调处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建目录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除目录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复制文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复制目录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查找文件记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恢复删除的文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恢复删除的目录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锁定文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取剩余空间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取文件锁定状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取文件信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取文件使用数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加文件版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消文件下载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CooperateFileDTO:协同文件信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CooperateFileDTO fileInfo:已下载的文件信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CooperateFileDTO getFileInfo(string fileId)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool isLock(CooperateFileDTO fileInfo)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CooperateFileDTO duplicateFile(CooperateFileDTO fileInfo,string path)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CooperateFileDTO createFileLink(CooperateFileDTO fileInfo, string path)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CooperateFileDTO uploadCallback(map params)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void downloadCallback(map params)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CooperateFileDTO fileInfo:申请上传的文件信息
+FileDTO fileDTO:上传完毕的实际文件信息
+CooperateFileDTO：上传完毕的文件信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void finishDownload(CooperateFileDTO fileInfo)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>long getFree(CooperationQueryDTO&amp; query)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CooperationDTO getCooperationInfo(CooperationQueryDTO&amp; query)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取文件列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void moveCooperateFile(CooperateFileDTO fileInfo)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更改文件信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件服务器上传时上传完毕后的回调函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件服务器下载时下载完毕后的回调函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端通知上传文件已结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端通知下载文件结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>替换实体文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建文件链接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool abortDownload(CooperateFileDTO fileInfo)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool abortUpload(CooperateFileDTO  fileInfo)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CooperateFileDTO createVersion(CooperateFileDTO fileInfo,string version)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int getLinkCount(FileDTO fileDTO)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool unlockFile(CooperateFileDTO fileInfo)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool lockFile(CooperateFileDTO fileInfo)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool restoreDirectory(string path)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool restoreFile(CooperateFileDTO fileInfo)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CooperateList listFileLink(FileDTO fileDTO)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool duplicateDirectory(string path,string parent)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool deleteDirectory(string path,bool force)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool createDirectory(string path)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool deleteFile(CooperateFileDTO fileInfo)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool replaceFile(CooperateFileDTO fileInfo,FileDTO fileDTO)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CooperateFileDTO finishUpload(CooperateFileDTO fileInfo,FileDTO fileDTO)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>远程下载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DownloadResultDTO downloadFrom(DownloadRequestDTO request,string address,int mode)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DownloadRequestDTO request：下载请求，同FileServer.download的request定义
+string address:要下载的服务器地址
+int mode:下载的组件模式
+DownloadResultDTO：同FileServer.download的返回值定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调用指定地址的文件服务器的下载文件内容接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目录信息表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实体文件scope，key
+是否锁定
+最后上传地址，版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组织、项目、任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存储信息表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称，类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存储信息树表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件信息表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常量表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maoding_storage_file</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maoding_storage_tree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maoding_storage_dir</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maoding_storage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maoding_const</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类，值，内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称，上级，类别，包括参考文件关系</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1956,7 +2349,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1976,6 +2369,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2290,7 +2692,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2299,35 +2701,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="4" customFormat="1" ht="60.75" customHeight="1">
-      <c r="A1" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
+      <c r="A1" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
     </row>
     <row r="2" spans="1:3" ht="61.5" customHeight="1">
-      <c r="A2" s="9" t="s">
-        <v>386</v>
-      </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
+      <c r="A2" s="12" t="s">
+        <v>396</v>
+      </c>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="10" t="s">
-        <v>347</v>
-      </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
+      <c r="A3" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="5" t="s">
-        <v>344</v>
+        <v>310</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>345</v>
+        <v>311</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>346</v>
+        <v>312</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2335,10 +2737,10 @@
         <v>43032</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>348</v>
+        <v>314</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>349</v>
+        <v>315</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2346,21 +2748,33 @@
         <v>43033</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>380</v>
+        <v>340</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>349</v>
+        <v>315</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
+      <c r="A7" s="6">
+        <v>43038</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>367</v>
+      </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
+      <c r="A8" s="6">
+        <v>43041</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>315</v>
+      </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="7"/>
@@ -2423,7 +2837,7 @@
   <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -2437,716 +2851,716 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="108">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
       <c r="E2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="40.5">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="54">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>310</v>
+        <v>287</v>
       </c>
       <c r="E4" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="81">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>379</v>
+        <v>339</v>
       </c>
       <c r="E5" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="54">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>317</v>
+        <v>294</v>
       </c>
       <c r="E6" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="67.5">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>311</v>
+        <v>288</v>
       </c>
       <c r="C7" t="s">
-        <v>313</v>
+        <v>290</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>324</v>
+        <v>296</v>
       </c>
       <c r="E7" t="s">
-        <v>315</v>
+        <v>292</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="54">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>312</v>
+        <v>289</v>
       </c>
       <c r="C8" t="s">
-        <v>314</v>
+        <v>291</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>325</v>
+        <v>297</v>
       </c>
       <c r="E8" t="s">
-        <v>316</v>
+        <v>293</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="40.5">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>404</v>
+        <v>360</v>
       </c>
       <c r="E9" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="67.5">
       <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" t="s">
         <v>40</v>
       </c>
-      <c r="B10" t="s">
-        <v>47</v>
-      </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>405</v>
+        <v>361</v>
       </c>
       <c r="E10" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="81">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>406</v>
+        <v>362</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>408</v>
+        <v>364</v>
       </c>
       <c r="E11" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="162">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>407</v>
+        <v>363</v>
       </c>
       <c r="E12" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="81">
       <c r="A13" t="s">
-        <v>273</v>
+        <v>250</v>
       </c>
       <c r="B13" t="s">
-        <v>274</v>
+        <v>251</v>
       </c>
       <c r="C13" t="s">
-        <v>275</v>
+        <v>252</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>276</v>
+        <v>253</v>
       </c>
       <c r="E13" t="s">
-        <v>277</v>
+        <v>254</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="27">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B14" t="s">
-        <v>278</v>
+        <v>255</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>279</v>
+        <v>256</v>
       </c>
       <c r="E14" t="s">
-        <v>280</v>
+        <v>257</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="189">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>281</v>
+        <v>258</v>
       </c>
       <c r="E15" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="54">
       <c r="A16" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E16" t="s">
-        <v>402</v>
+        <v>359</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="81">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="E17" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="27">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B18" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C18" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E18" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="27">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s">
-        <v>282</v>
+        <v>259</v>
       </c>
       <c r="C19" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="E19" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="40.5">
       <c r="A20" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E20" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="40.5">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B21" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E21" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="27">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C22" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E22" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="27">
       <c r="A23" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B23" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C23" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="E23" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="27">
       <c r="A24" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B24" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C24" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="E24" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="27">
       <c r="A25" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B25" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C25" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="E25" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B26" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E26" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="27">
       <c r="A27" t="s">
-        <v>223</v>
+        <v>204</v>
       </c>
       <c r="B27" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>225</v>
+        <v>206</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>226</v>
+        <v>207</v>
       </c>
       <c r="E27" t="s">
-        <v>227</v>
+        <v>208</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="54">
       <c r="A28" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B28" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E28" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="67.5">
       <c r="A29" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B29" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>219</v>
+        <v>200</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
       <c r="E29" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>219</v>
+        <v>200</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>221</v>
+        <v>202</v>
       </c>
       <c r="E30" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="67.5">
       <c r="A31" t="s">
-        <v>223</v>
+        <v>204</v>
       </c>
       <c r="B31" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>240</v>
+        <v>221</v>
       </c>
       <c r="E31" t="s">
-        <v>230</v>
+        <v>211</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>223</v>
+        <v>204</v>
       </c>
       <c r="B32" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>234</v>
+        <v>215</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>236</v>
+        <v>217</v>
       </c>
       <c r="E32" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="27">
       <c r="A33" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B33" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E33" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="27">
       <c r="A34" t="s">
+        <v>52</v>
+      </c>
+      <c r="B34" t="s">
+        <v>74</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B34" t="s">
-        <v>81</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="D34" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E34" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="27">
       <c r="A35" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B35" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="E35" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="54">
       <c r="A36" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B36" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="E36" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B37" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="E37" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="27">
       <c r="A38" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B38" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="E38" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="40.5">
       <c r="A39" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B39" t="s">
         <v>4</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E39" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B40" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E40" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="27">
       <c r="A41" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B41" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="E41" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="27">
       <c r="A42" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B42" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E42" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -3173,46 +3587,46 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="67.5">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>267</v>
+        <v>246</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="40.5">
       <c r="A3" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B3" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>283</v>
+        <v>260</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="40.5">
       <c r="A4" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B4" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -3223,12 +3637,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3236,897 +3649,1047 @@
     <col min="1" max="1" width="12.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.25" customWidth="1"/>
     <col min="3" max="3" width="46.125" customWidth="1"/>
-    <col min="4" max="4" width="33.875" customWidth="1"/>
+    <col min="4" max="4" width="33.875" style="2" customWidth="1"/>
     <col min="5" max="5" width="85.875" customWidth="1"/>
     <col min="6" max="6" width="31.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>100</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>247</v>
+        <v>228</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="40.5" hidden="1">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="40.5">
       <c r="A2" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="D2" t="s">
-        <v>284</v>
+        <v>261</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" hidden="1">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="D3" t="s">
-        <v>285</v>
+        <v>262</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" hidden="1">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
       <c r="C4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D4" t="s">
+        <v>263</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B5" t="s">
+        <v>282</v>
+      </c>
+      <c r="C5" t="s">
+        <v>283</v>
+      </c>
+      <c r="D5" t="s">
+        <v>284</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>233</v>
+      </c>
+      <c r="B6" t="s">
+        <v>234</v>
+      </c>
+      <c r="C6" t="s">
+        <v>235</v>
+      </c>
+      <c r="D6" t="s">
+        <v>264</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>233</v>
+      </c>
+      <c r="B7" t="s">
+        <v>236</v>
+      </c>
+      <c r="C7" t="s">
+        <v>237</v>
+      </c>
+      <c r="D7" t="s">
+        <v>265</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>233</v>
+      </c>
+      <c r="B8" t="s">
+        <v>238</v>
+      </c>
+      <c r="C8" t="s">
+        <v>240</v>
+      </c>
+      <c r="D8" t="s">
+        <v>266</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>233</v>
+      </c>
+      <c r="B9" t="s">
+        <v>241</v>
+      </c>
+      <c r="C9" t="s">
+        <v>242</v>
+      </c>
+      <c r="D9" t="s">
+        <v>267</v>
+      </c>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>233</v>
+      </c>
+      <c r="B10" t="s">
+        <v>239</v>
+      </c>
+      <c r="C10" t="s">
+        <v>243</v>
+      </c>
+      <c r="D10" t="s">
+        <v>268</v>
+      </c>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>233</v>
+      </c>
+      <c r="B11" t="s">
+        <v>244</v>
+      </c>
+      <c r="C11" t="s">
+        <v>245</v>
+      </c>
+      <c r="D11" t="s">
+        <v>269</v>
+      </c>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>233</v>
+      </c>
+      <c r="B12" t="s">
+        <v>239</v>
+      </c>
+      <c r="C12" t="s">
+        <v>270</v>
+      </c>
+      <c r="D12" t="s">
+        <v>272</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>233</v>
+      </c>
+      <c r="B13" t="s">
+        <v>244</v>
+      </c>
+      <c r="C13" t="s">
+        <v>271</v>
+      </c>
+      <c r="D13" t="s">
+        <v>273</v>
+      </c>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" ht="27">
+      <c r="A14" t="s">
+        <v>346</v>
+      </c>
+      <c r="B14" t="s">
+        <v>347</v>
+      </c>
+      <c r="C14" t="s">
+        <v>348</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>346</v>
+      </c>
+      <c r="B15" t="s">
+        <v>351</v>
+      </c>
+      <c r="C15" t="s">
+        <v>352</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="175.5">
+      <c r="A16" t="s">
+        <v>140</v>
+      </c>
+      <c r="B16" t="s">
+        <v>301</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="81">
+      <c r="A17" t="s">
+        <v>140</v>
+      </c>
+      <c r="B17" t="s">
+        <v>302</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="297">
+      <c r="A18" t="s">
+        <v>140</v>
+      </c>
+      <c r="B18" t="s">
+        <v>365</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>390</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="202.5">
+      <c r="A19" t="s">
+        <v>368</v>
+      </c>
+      <c r="B19" t="s">
+        <v>369</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>371</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>400</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="27">
+      <c r="A20" t="s">
+        <v>143</v>
+      </c>
+      <c r="B20" t="s">
+        <v>120</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="27">
+      <c r="A21" t="s">
+        <v>145</v>
+      </c>
+      <c r="B21" t="s">
+        <v>146</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="27">
+      <c r="A22" t="s">
+        <v>145</v>
+      </c>
+      <c r="B22" t="s">
+        <v>153</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>140</v>
+      </c>
+      <c r="B23" t="s">
+        <v>329</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>145</v>
+      </c>
+      <c r="B24" t="s">
+        <v>156</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>140</v>
+      </c>
+      <c r="B25" t="s">
+        <v>403</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="40.5">
+      <c r="A26" t="s">
+        <v>127</v>
+      </c>
+      <c r="B26" t="s">
+        <v>122</v>
+      </c>
+      <c r="C26" t="s">
+        <v>194</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="1:6" ht="27">
+      <c r="A27" t="s">
+        <v>130</v>
+      </c>
+      <c r="B27" t="s">
+        <v>123</v>
+      </c>
+      <c r="C27" t="s">
+        <v>135</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>127</v>
+      </c>
+      <c r="B28" t="s">
+        <v>195</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D28" t="s">
+        <v>356</v>
+      </c>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>127</v>
+      </c>
+      <c r="B29" t="s">
+        <v>196</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D29" t="s">
+        <v>357</v>
+      </c>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="1:6" ht="54">
+      <c r="A30" t="s">
+        <v>225</v>
+      </c>
+      <c r="B30" t="s">
+        <v>226</v>
+      </c>
+      <c r="C30" t="s">
+        <v>227</v>
+      </c>
+      <c r="D30" t="s">
+        <v>274</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="40.5">
+      <c r="A31" t="s">
+        <v>126</v>
+      </c>
+      <c r="B31" t="s">
+        <v>438</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" spans="1:6" ht="40.5">
+      <c r="A32" t="s">
+        <v>126</v>
+      </c>
+      <c r="B32" t="s">
+        <v>440</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33" spans="1:6" ht="270">
+      <c r="A33" t="s">
+        <v>126</v>
+      </c>
+      <c r="B33" t="s">
+        <v>379</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="94.5">
+      <c r="A34" t="s">
+        <v>126</v>
+      </c>
+      <c r="B34" t="s">
+        <v>380</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="54">
+      <c r="A35" t="s">
+        <v>126</v>
+      </c>
+      <c r="B35" t="s">
+        <v>462</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="27">
+      <c r="A36" t="s">
+        <v>126</v>
+      </c>
+      <c r="B36" t="s">
+        <v>441</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
+        <v>126</v>
+      </c>
+      <c r="B37" t="s">
+        <v>442</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="E37" s="2"/>
+    </row>
+    <row r="38" spans="1:6" ht="40.5">
+      <c r="A38" t="s">
+        <v>128</v>
+      </c>
+      <c r="B38" t="s">
+        <v>443</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="40.5">
+      <c r="A39" t="s">
+        <v>141</v>
+      </c>
+      <c r="B39" t="s">
+        <v>444</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="40.5">
+      <c r="A40" t="s">
+        <v>141</v>
+      </c>
+      <c r="B40" t="s">
+        <v>445</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="E40" s="2"/>
+    </row>
+    <row r="41" spans="1:6" ht="27">
+      <c r="A41" t="s">
+        <v>126</v>
+      </c>
+      <c r="B41" t="s">
+        <v>410</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="E41" s="2"/>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" t="s">
+        <v>126</v>
+      </c>
+      <c r="B42" t="s">
+        <v>411</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="E42" s="2"/>
+    </row>
+    <row r="43" spans="1:6" ht="27">
+      <c r="A43" t="s">
+        <v>126</v>
+      </c>
+      <c r="B43" t="s">
+        <v>412</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="E43" s="2"/>
+    </row>
+    <row r="44" spans="1:6" ht="40.5">
+      <c r="A44" t="s">
+        <v>126</v>
+      </c>
+      <c r="B44" t="s">
+        <v>413</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="E44" s="2"/>
+    </row>
+    <row r="45" spans="1:6" ht="40.5">
+      <c r="A45" t="s">
+        <v>126</v>
+      </c>
+      <c r="B45" t="s">
+        <v>446</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="E45" s="2"/>
+    </row>
+    <row r="46" spans="1:6" ht="40.5">
+      <c r="A46" t="s">
+        <v>126</v>
+      </c>
+      <c r="B46" t="s">
+        <v>414</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="E46" s="2"/>
+    </row>
+    <row r="47" spans="1:6" ht="27">
+      <c r="A47" t="s">
+        <v>126</v>
+      </c>
+      <c r="B47" t="s">
+        <v>415</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="E47" s="2"/>
+    </row>
+    <row r="48" spans="1:6" ht="67.5">
+      <c r="A48" t="s">
+        <v>126</v>
+      </c>
+      <c r="B48" t="s">
+        <v>416</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="E48" s="2"/>
+    </row>
+    <row r="49" spans="1:5" ht="40.5">
+      <c r="A49" t="s">
+        <v>126</v>
+      </c>
+      <c r="B49" t="s">
+        <v>417</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="E49" s="2"/>
+    </row>
+    <row r="50" spans="1:5" ht="40.5">
+      <c r="A50" t="s">
+        <v>126</v>
+      </c>
+      <c r="B50" t="s">
+        <v>418</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="E50" s="2"/>
+    </row>
+    <row r="51" spans="1:5" ht="40.5">
+      <c r="A51" t="s">
+        <v>126</v>
+      </c>
+      <c r="B51" t="s">
+        <v>419</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="E51" s="2"/>
+    </row>
+    <row r="52" spans="1:5" ht="27">
+      <c r="A52" t="s">
+        <v>128</v>
+      </c>
+      <c r="B52" t="s">
+        <v>420</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="E52" s="2"/>
+    </row>
+    <row r="53" spans="1:5" ht="27">
+      <c r="A53" t="s">
+        <v>128</v>
+      </c>
+      <c r="B53" t="s">
+        <v>421</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="E53" s="2"/>
+    </row>
+    <row r="54" spans="1:5" ht="27">
+      <c r="A54" t="s">
+        <v>128</v>
+      </c>
+      <c r="B54" t="s">
+        <v>422</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="E54" s="2"/>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" t="s">
+        <v>128</v>
+      </c>
+      <c r="B55" t="s">
+        <v>423</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="E55" s="2"/>
+    </row>
+    <row r="56" spans="1:5" ht="40.5">
+      <c r="A56" t="s">
+        <v>247</v>
+      </c>
+      <c r="B56" t="s">
+        <v>424</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="E56" s="2"/>
+    </row>
+    <row r="57" spans="1:5" ht="40.5">
+      <c r="A57" t="s">
+        <v>401</v>
+      </c>
+      <c r="B57" t="s">
+        <v>402</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="40.5">
+      <c r="A58" t="s">
+        <v>401</v>
+      </c>
+      <c r="B58" t="s">
+        <v>425</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="27">
+      <c r="A59" t="s">
+        <v>164</v>
+      </c>
+      <c r="B59" t="s">
         <v>148</v>
       </c>
-      <c r="D4" t="s">
-        <v>286</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" hidden="1">
-      <c r="A5" t="s">
-        <v>139</v>
-      </c>
-      <c r="B5" t="s">
-        <v>305</v>
-      </c>
-      <c r="C5" t="s">
-        <v>306</v>
-      </c>
-      <c r="D5" t="s">
-        <v>307</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" hidden="1">
-      <c r="A6" t="s">
-        <v>254</v>
-      </c>
-      <c r="B6" t="s">
-        <v>255</v>
-      </c>
-      <c r="C6" t="s">
-        <v>256</v>
-      </c>
-      <c r="D6" t="s">
-        <v>287</v>
-      </c>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" hidden="1">
-      <c r="A7" t="s">
-        <v>254</v>
-      </c>
-      <c r="B7" t="s">
-        <v>257</v>
-      </c>
-      <c r="C7" t="s">
-        <v>258</v>
-      </c>
-      <c r="D7" t="s">
-        <v>288</v>
-      </c>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" hidden="1">
-      <c r="A8" t="s">
-        <v>254</v>
-      </c>
-      <c r="B8" t="s">
-        <v>259</v>
-      </c>
-      <c r="C8" t="s">
-        <v>261</v>
-      </c>
-      <c r="D8" t="s">
-        <v>289</v>
-      </c>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" hidden="1">
-      <c r="A9" t="s">
-        <v>254</v>
-      </c>
-      <c r="B9" t="s">
-        <v>262</v>
-      </c>
-      <c r="C9" t="s">
-        <v>263</v>
-      </c>
-      <c r="D9" t="s">
-        <v>290</v>
-      </c>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:6" hidden="1">
-      <c r="A10" t="s">
-        <v>254</v>
-      </c>
-      <c r="B10" t="s">
-        <v>260</v>
-      </c>
-      <c r="C10" t="s">
-        <v>264</v>
-      </c>
-      <c r="D10" t="s">
-        <v>291</v>
-      </c>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:6" hidden="1">
-      <c r="A11" t="s">
-        <v>254</v>
-      </c>
-      <c r="B11" t="s">
-        <v>265</v>
-      </c>
-      <c r="C11" t="s">
-        <v>266</v>
-      </c>
-      <c r="D11" t="s">
-        <v>292</v>
-      </c>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:6" hidden="1">
-      <c r="A12" t="s">
-        <v>254</v>
-      </c>
-      <c r="B12" t="s">
-        <v>260</v>
-      </c>
-      <c r="C12" t="s">
-        <v>293</v>
-      </c>
-      <c r="D12" t="s">
-        <v>295</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" hidden="1">
-      <c r="A13" t="s">
-        <v>254</v>
-      </c>
-      <c r="B13" t="s">
-        <v>265</v>
-      </c>
-      <c r="C13" t="s">
-        <v>294</v>
-      </c>
-      <c r="D13" t="s">
-        <v>296</v>
-      </c>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:6" ht="67.5" hidden="1">
-      <c r="A14" t="s">
-        <v>241</v>
-      </c>
-      <c r="B14" t="s">
-        <v>242</v>
-      </c>
-      <c r="C14" t="s">
-        <v>243</v>
-      </c>
-      <c r="D14" t="s">
-        <v>251</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" hidden="1">
-      <c r="A15" t="s">
-        <v>241</v>
-      </c>
-      <c r="B15" t="s">
-        <v>248</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="C59" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="D15" t="s">
-        <v>250</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="54" hidden="1">
-      <c r="A16" t="s">
-        <v>244</v>
-      </c>
-      <c r="B16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C16" t="s">
-        <v>246</v>
-      </c>
-      <c r="D16" t="s">
-        <v>297</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" t="s">
-        <v>388</v>
-      </c>
-      <c r="B17" t="s">
-        <v>389</v>
-      </c>
-      <c r="C17" t="s">
-        <v>390</v>
-      </c>
-      <c r="D17" t="s">
-        <v>391</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" t="s">
-        <v>388</v>
-      </c>
-      <c r="B18" t="s">
-        <v>393</v>
-      </c>
-      <c r="C18" t="s">
-        <v>394</v>
-      </c>
-      <c r="D18" t="s">
-        <v>395</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="40.5">
-      <c r="A19" t="s">
+      <c r="D59"/>
+      <c r="E59" s="2"/>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" t="s">
+        <v>164</v>
+      </c>
+      <c r="B60" t="s">
+        <v>5</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D60"/>
+      <c r="E60" s="2"/>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" t="s">
+        <v>164</v>
+      </c>
+      <c r="B61" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D61"/>
+      <c r="E61" s="2"/>
+    </row>
+    <row r="62" spans="1:5" ht="54">
+      <c r="A62" t="s">
+        <v>164</v>
+      </c>
+      <c r="B62" t="s">
+        <v>154</v>
+      </c>
+      <c r="C62" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B19" t="s">
-        <v>329</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="D19" t="s">
-        <v>373</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="81">
-      <c r="A20" t="s">
-        <v>155</v>
-      </c>
-      <c r="B20" t="s">
-        <v>330</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="D20" t="s">
-        <v>363</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="27">
-      <c r="A21" t="s">
-        <v>158</v>
-      </c>
-      <c r="B21" t="s">
-        <v>127</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="D21" t="s">
-        <v>384</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="27">
-      <c r="A22" t="s">
-        <v>160</v>
-      </c>
-      <c r="B22" t="s">
-        <v>161</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="D22" t="s">
-        <v>364</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" t="s">
-        <v>160</v>
-      </c>
-      <c r="B23" t="s">
-        <v>168</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="D23" t="s">
-        <v>365</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" t="s">
-        <v>155</v>
-      </c>
-      <c r="B24" t="s">
-        <v>367</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="D24" t="s">
-        <v>369</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" t="s">
-        <v>160</v>
-      </c>
-      <c r="B25" t="s">
-        <v>171</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="D25" t="s">
-        <v>385</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="40.5" hidden="1">
-      <c r="A26" t="s">
-        <v>142</v>
-      </c>
-      <c r="B26" t="s">
-        <v>132</v>
-      </c>
-      <c r="C26" t="s">
-        <v>213</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="E26" s="2"/>
-    </row>
-    <row r="27" spans="1:5" ht="27" hidden="1">
-      <c r="A27" t="s">
-        <v>145</v>
-      </c>
-      <c r="B27" t="s">
-        <v>133</v>
-      </c>
-      <c r="C27" t="s">
-        <v>150</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="E27" s="2"/>
-    </row>
-    <row r="28" spans="1:5" hidden="1">
-      <c r="A28" t="s">
-        <v>142</v>
-      </c>
-      <c r="B28" t="s">
-        <v>214</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="D28" t="s">
-        <v>398</v>
-      </c>
-      <c r="E28" s="2"/>
-    </row>
-    <row r="29" spans="1:5" hidden="1">
-      <c r="A29" t="s">
-        <v>142</v>
-      </c>
-      <c r="B29" t="s">
-        <v>215</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="D29" t="s">
-        <v>399</v>
-      </c>
-      <c r="E29" s="2"/>
-    </row>
-    <row r="30" spans="1:5" ht="40.5" hidden="1">
-      <c r="A30" t="s">
-        <v>141</v>
-      </c>
-      <c r="B30" t="s">
-        <v>136</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="E30" s="2"/>
-    </row>
-    <row r="31" spans="1:5" ht="40.5" hidden="1">
-      <c r="A31" t="s">
-        <v>141</v>
-      </c>
-      <c r="B31" t="s">
-        <v>137</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="E31" s="2"/>
-    </row>
-    <row r="32" spans="1:5" ht="40.5" hidden="1">
-      <c r="A32" t="s">
-        <v>141</v>
-      </c>
-      <c r="B32" t="s">
-        <v>409</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="E32" s="2"/>
-    </row>
-    <row r="33" spans="1:5" ht="94.5" hidden="1">
-      <c r="A33" t="s">
-        <v>141</v>
-      </c>
-      <c r="B33" t="s">
-        <v>318</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="E33" s="2"/>
-    </row>
-    <row r="34" spans="1:5" ht="108" hidden="1">
-      <c r="A34" t="s">
-        <v>141</v>
-      </c>
-      <c r="B34" t="s">
-        <v>319</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="E34" s="2"/>
-    </row>
-    <row r="35" spans="1:5" ht="27" hidden="1">
-      <c r="A35" t="s">
-        <v>141</v>
-      </c>
-      <c r="B35" t="s">
-        <v>253</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="E35" s="2"/>
-    </row>
-    <row r="36" spans="1:5" hidden="1">
-      <c r="A36" t="s">
-        <v>141</v>
-      </c>
-      <c r="B36" t="s">
-        <v>331</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="E36" s="2"/>
-    </row>
-    <row r="37" spans="1:5" hidden="1">
-      <c r="A37" t="s">
-        <v>141</v>
-      </c>
-      <c r="B37" t="s">
-        <v>332</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="E37" s="2"/>
-    </row>
-    <row r="38" spans="1:5" ht="27" hidden="1">
-      <c r="A38" t="s">
-        <v>143</v>
-      </c>
-      <c r="B38" t="s">
-        <v>322</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="E38" s="2"/>
-    </row>
-    <row r="39" spans="1:5" ht="40.5" hidden="1">
-      <c r="A39" t="s">
-        <v>156</v>
-      </c>
-      <c r="B39" t="s">
-        <v>323</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="E39" s="2"/>
-    </row>
-    <row r="40" spans="1:5" ht="40.5" hidden="1">
-      <c r="A40" t="s">
-        <v>156</v>
-      </c>
-      <c r="B40" t="s">
-        <v>175</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="E40" s="2"/>
-    </row>
-    <row r="41" spans="1:5" ht="27" hidden="1">
-      <c r="A41" t="s">
-        <v>141</v>
-      </c>
-      <c r="B41" t="s">
-        <v>5</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="E41" s="2"/>
-    </row>
-    <row r="42" spans="1:5" hidden="1">
-      <c r="A42" t="s">
-        <v>141</v>
-      </c>
-      <c r="B42" t="s">
-        <v>6</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="E42" s="2"/>
-    </row>
-    <row r="43" spans="1:5" ht="27" hidden="1">
-      <c r="A43" t="s">
-        <v>141</v>
-      </c>
-      <c r="B43" t="s">
-        <v>7</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="E43" s="2"/>
-    </row>
-    <row r="44" spans="1:5" ht="40.5" hidden="1">
-      <c r="A44" t="s">
-        <v>141</v>
-      </c>
-      <c r="B44" t="s">
-        <v>127</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="E44" s="2"/>
-    </row>
-    <row r="45" spans="1:5" hidden="1">
-      <c r="A45" t="s">
-        <v>141</v>
-      </c>
-      <c r="B45" t="s">
-        <v>128</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="E45" s="2"/>
-    </row>
-    <row r="46" spans="1:5" ht="40.5" hidden="1">
-      <c r="A46" t="s">
-        <v>141</v>
-      </c>
-      <c r="B46" t="s">
+      <c r="D62"/>
+      <c r="E62" s="2"/>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" t="s">
         <v>129</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E46" s="2"/>
-    </row>
-    <row r="47" spans="1:5" hidden="1">
-      <c r="A47" t="s">
-        <v>141</v>
-      </c>
-      <c r="B47" t="s">
-        <v>271</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E47" s="2"/>
-    </row>
-    <row r="48" spans="1:5" ht="67.5" hidden="1">
-      <c r="A48" t="s">
-        <v>141</v>
-      </c>
-      <c r="B48" t="s">
-        <v>130</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="E48" s="2"/>
-    </row>
-    <row r="49" spans="1:5" ht="40.5" hidden="1">
-      <c r="A49" t="s">
-        <v>141</v>
-      </c>
-      <c r="B49" t="s">
-        <v>8</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="E49" s="2"/>
-    </row>
-    <row r="50" spans="1:5" ht="40.5" hidden="1">
-      <c r="A50" t="s">
-        <v>141</v>
-      </c>
-      <c r="B50" t="s">
-        <v>9</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="E50" s="2"/>
-    </row>
-    <row r="51" spans="1:5" ht="40.5" hidden="1">
-      <c r="A51" t="s">
-        <v>141</v>
-      </c>
-      <c r="B51" t="s">
-        <v>135</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="E51" s="2"/>
-    </row>
-    <row r="52" spans="1:5" hidden="1">
-      <c r="A52" t="s">
-        <v>143</v>
-      </c>
-      <c r="B52" t="s">
-        <v>12</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="E52" s="2"/>
-    </row>
-    <row r="53" spans="1:5" hidden="1">
-      <c r="A53" t="s">
-        <v>143</v>
-      </c>
-      <c r="B53" t="s">
-        <v>13</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="E53" s="2"/>
-    </row>
-    <row r="54" spans="1:5" hidden="1">
-      <c r="A54" t="s">
-        <v>143</v>
-      </c>
-      <c r="B54" t="s">
-        <v>134</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E54" s="2"/>
-    </row>
-    <row r="55" spans="1:5" hidden="1">
-      <c r="A55" t="s">
-        <v>143</v>
-      </c>
-      <c r="B55" t="s">
-        <v>138</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="E55" s="2"/>
-    </row>
-    <row r="56" spans="1:5" ht="27" hidden="1">
-      <c r="A56" t="s">
-        <v>268</v>
-      </c>
-      <c r="B56" t="s">
-        <v>269</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="E56" s="2"/>
-    </row>
-    <row r="57" spans="1:5" ht="27" hidden="1">
-      <c r="A57" t="s">
-        <v>181</v>
-      </c>
-      <c r="B57" t="s">
-        <v>163</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="E57" s="2"/>
-    </row>
-    <row r="58" spans="1:5" hidden="1">
-      <c r="A58" t="s">
-        <v>181</v>
-      </c>
-      <c r="B58" t="s">
-        <v>10</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="E58" s="2"/>
-    </row>
-    <row r="59" spans="1:5" hidden="1">
-      <c r="A59" t="s">
-        <v>181</v>
-      </c>
-      <c r="B59" t="s">
-        <v>11</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="E59" s="2"/>
-    </row>
-    <row r="60" spans="1:5" ht="54" hidden="1">
-      <c r="A60" t="s">
-        <v>181</v>
-      </c>
-      <c r="B60" t="s">
-        <v>169</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E60" s="2"/>
-    </row>
-    <row r="61" spans="1:5" hidden="1">
-      <c r="A61" t="s">
-        <v>144</v>
-      </c>
-      <c r="B61" t="s">
-        <v>131</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="E61" s="2"/>
+      <c r="B63" t="s">
+        <v>121</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D63"/>
+      <c r="E63" s="2"/>
+    </row>
+    <row r="64" spans="1:5" ht="67.5">
+      <c r="A64" t="s">
+        <v>222</v>
+      </c>
+      <c r="B64" t="s">
+        <v>223</v>
+      </c>
+      <c r="C64" t="s">
+        <v>224</v>
+      </c>
+      <c r="D64" t="s">
+        <v>232</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" t="s">
+        <v>222</v>
+      </c>
+      <c r="B65" t="s">
+        <v>229</v>
+      </c>
+      <c r="C65" t="s">
+        <v>230</v>
+      </c>
+      <c r="D65" t="s">
+        <v>231</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>280</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E61">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="FileServer"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <sortState ref="A2:F44">
-    <sortCondition ref="A43"/>
+  <autoFilter ref="A1:E65"/>
+  <sortState ref="A2:F66">
+    <sortCondition ref="A2:A66"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4136,40 +4699,86 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="2" width="16.5" customWidth="1"/>
     <col min="3" max="3" width="20.875" customWidth="1"/>
-    <col min="4" max="4" width="31" customWidth="1"/>
-    <col min="5" max="5" width="41.5" customWidth="1"/>
+    <col min="4" max="4" width="41.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1">
+    <row r="1" spans="1:4" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>341</v>
+        <v>308</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="40.5">
       <c r="A2" t="s">
-        <v>340</v>
+        <v>472</v>
+      </c>
+      <c r="B2" t="s">
+        <v>474</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>471</v>
+      </c>
+      <c r="B3" t="s">
+        <v>475</v>
+      </c>
+      <c r="C3" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>466</v>
+      </c>
+      <c r="B4" t="s">
+        <v>476</v>
+      </c>
+      <c r="C4" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>469</v>
+      </c>
+      <c r="B5" t="s">
+        <v>477</v>
+      </c>
+      <c r="C5" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>473</v>
+      </c>
+      <c r="B6" t="s">
+        <v>478</v>
+      </c>
+      <c r="C6" t="s">
+        <v>479</v>
       </c>
     </row>
   </sheetData>
@@ -4181,317 +4790,248 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView topLeftCell="A14" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="52" customWidth="1"/>
+    <col min="1" max="1" width="22.25" style="2" customWidth="1"/>
+    <col min="2" max="2" width="52" style="2" customWidth="1"/>
     <col min="3" max="3" width="44.625" customWidth="1"/>
-    <col min="4" max="4" width="36" customWidth="1"/>
+    <col min="4" max="4" width="104.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>308</v>
+      <c r="A1" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="2" spans="1:4" hidden="1">
       <c r="A2" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="B2" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:4" hidden="1">
       <c r="A3" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="B3" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:4" hidden="1">
       <c r="A4" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="B4" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:4" hidden="1">
       <c r="A5" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="B5" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:4" hidden="1">
       <c r="A6" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="B6" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:4" hidden="1">
       <c r="A7" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="B7" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:4" hidden="1">
       <c r="A8" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="B8" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:4" hidden="1">
       <c r="A9" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="B9" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
     </row>
     <row r="10" spans="1:4" hidden="1">
       <c r="A10" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="B10" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
       <c r="C10" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
     </row>
     <row r="11" spans="1:4" hidden="1">
       <c r="A11" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="B11" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="C11" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="94.5">
-      <c r="A12" t="s">
-        <v>211</v>
-      </c>
-      <c r="B12" t="s">
-        <v>359</v>
-      </c>
-      <c r="C12" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="162">
+      <c r="A12" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="81">
+      <c r="A13" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="297">
+      <c r="A14" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>370</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="202.5">
+      <c r="A15" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>371</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="27">
+      <c r="A16" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="27">
+      <c r="A17" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="27">
+      <c r="A18" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="27">
+      <c r="A19" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="C19" s="9" t="s">
         <v>335</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="94.5">
-      <c r="A13" t="s">
-        <v>211</v>
-      </c>
-      <c r="B13" t="s">
-        <v>356</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="40.5">
-      <c r="A14" t="s">
-        <v>212</v>
-      </c>
-      <c r="B14" t="s">
-        <v>377</v>
-      </c>
-      <c r="C14" s="2" t="s">
+      <c r="D19" s="9" t="s">
         <v>336</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="40.5">
-      <c r="A15" t="s">
-        <v>212</v>
-      </c>
-      <c r="B15" t="s">
-        <v>361</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="27">
-      <c r="A16" t="s">
-        <v>212</v>
-      </c>
-      <c r="B16" t="s">
-        <v>365</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>211</v>
-      </c>
-      <c r="B17" t="s">
-        <v>369</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="27">
-      <c r="A18" t="s">
-        <v>211</v>
-      </c>
-      <c r="B18" t="s">
-        <v>378</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="94.5">
-      <c r="A19" t="s">
-        <v>342</v>
-      </c>
-      <c r="B19" t="s">
-        <v>359</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="94.5">
-      <c r="A20" t="s">
-        <v>342</v>
-      </c>
-      <c r="B20" t="s">
-        <v>356</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="40.5">
-      <c r="A21" t="s">
-        <v>342</v>
-      </c>
-      <c r="B21" t="s">
-        <v>377</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="40.5">
-      <c r="A22" t="s">
-        <v>342</v>
-      </c>
-      <c r="B22" t="s">
-        <v>361</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="27">
-      <c r="A23" t="s">
-        <v>342</v>
-      </c>
-      <c r="B23" t="s">
-        <v>365</v>
-      </c>
-      <c r="C23" s="2" t="s">
+    </row>
+    <row r="20" spans="1:4" ht="27">
+      <c r="A20" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="B20" s="9" t="s">
         <v>338</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" t="s">
-        <v>342</v>
-      </c>
-      <c r="B24" t="s">
-        <v>369</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="27">
-      <c r="A25" t="s">
-        <v>342</v>
-      </c>
-      <c r="B25" t="s">
-        <v>378</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>362</v>
+      <c r="C20" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>325</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D25">
+  <autoFilter ref="A1:D20">
     <filterColumn colId="0">
       <filters>
         <filter val="Aliyun"/>
@@ -4522,38 +5062,38 @@
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>238</v>
+        <v>219</v>
       </c>
       <c r="B2" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>239</v>
+        <v>220</v>
       </c>
       <c r="B3" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -4567,7 +5107,7 @@
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4580,19 +5120,19 @@
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -4619,16 +5159,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
